--- a/stats/avey/disease_type=all failure-type-ignored=any-error for app=WebMD.xlsx
+++ b/stats/avey/disease_type=all failure-type-ignored=any-error for app=WebMD.xlsx
@@ -619,12 +619,12 @@
       <c r="BO1" s="1" t="n"/>
       <c r="BP1" s="1" t="inlineStr">
         <is>
+          <t>average_doctor_old</t>
+        </is>
+      </c>
+      <c r="BQ1" s="1" t="inlineStr">
+        <is>
           <t>average_doctor</t>
-        </is>
-      </c>
-      <c r="BQ1" s="1" t="inlineStr">
-        <is>
-          <t>average_doctor_old</t>
         </is>
       </c>
     </row>
@@ -979,13 +979,13 @@
         <v>0.275</v>
       </c>
       <c r="E4" t="n">
-        <v>0.359</v>
+        <v>0.425</v>
       </c>
       <c r="F4" t="n">
-        <v>0.067</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="G4" t="n">
-        <v>0.26</v>
+        <v>0.266</v>
       </c>
       <c r="H4" t="n">
         <v>0.337</v>
@@ -1006,22 +1006,22 @@
         <v>0.262</v>
       </c>
       <c r="N4" t="n">
-        <v>0.398</v>
+        <v>0.437</v>
       </c>
       <c r="O4" t="n">
-        <v>0.068</v>
+        <v>0.064</v>
       </c>
       <c r="P4" t="n">
-        <v>0.261</v>
+        <v>0.252</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.013</v>
+        <v>0.024</v>
       </c>
       <c r="R4" t="n">
-        <v>0.006</v>
+        <v>0.017</v>
       </c>
       <c r="S4" t="n">
-        <v>0.079</v>
+        <v>0.13</v>
       </c>
       <c r="T4" t="n">
         <v>0.386</v>
@@ -1033,13 +1033,13 @@
         <v>0.339</v>
       </c>
       <c r="W4" t="n">
-        <v>0.25</v>
+        <v>0.289</v>
       </c>
       <c r="X4" t="n">
-        <v>0.105</v>
+        <v>0.109</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.325</v>
+        <v>0.33</v>
       </c>
       <c r="Z4" t="n">
         <v>0.384</v>
@@ -1069,13 +1069,13 @@
         <v>0.304</v>
       </c>
       <c r="AI4" t="n">
-        <v>0.245</v>
+        <v>0.295</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0.081</v>
+        <v>0.08799999999999999</v>
       </c>
       <c r="AK4" t="n">
-        <v>0.285</v>
+        <v>0.297</v>
       </c>
       <c r="AL4" t="n">
         <v>0.293</v>
@@ -1105,13 +1105,13 @@
         <v>0.153</v>
       </c>
       <c r="AU4" t="n">
-        <v>0.169</v>
+        <v>0.192</v>
       </c>
       <c r="AV4" t="n">
-        <v>0.026</v>
+        <v>0.028</v>
       </c>
       <c r="AW4" t="n">
-        <v>0.161</v>
+        <v>0.167</v>
       </c>
       <c r="AX4" t="n">
         <v>2.117</v>
@@ -1123,13 +1123,13 @@
         <v>0.379</v>
       </c>
       <c r="BA4" t="n">
-        <v>1.795</v>
+        <v>1.996</v>
       </c>
       <c r="BB4" t="n">
-        <v>0.172</v>
+        <v>0.159</v>
       </c>
       <c r="BC4" t="n">
-        <v>0.415</v>
+        <v>0.399</v>
       </c>
       <c r="BD4" t="n">
         <v>0.749</v>
@@ -1141,13 +1141,13 @@
         <v>0.361</v>
       </c>
       <c r="BG4" t="n">
-        <v>0.645</v>
+        <v>0.726</v>
       </c>
       <c r="BH4" t="n">
-        <v>0.175</v>
+        <v>0.142</v>
       </c>
       <c r="BI4" t="n">
-        <v>0.419</v>
+        <v>0.377</v>
       </c>
       <c r="BJ4" t="n">
         <v>0.747</v>
@@ -1159,19 +1159,19 @@
         <v>0.285</v>
       </c>
       <c r="BM4" t="n">
-        <v>0.639</v>
+        <v>0.713</v>
       </c>
       <c r="BN4" t="n">
-        <v>0.112</v>
+        <v>0.08</v>
       </c>
       <c r="BO4" t="n">
-        <v>0.335</v>
+        <v>0.282</v>
       </c>
       <c r="BP4" t="n">
+        <v>0.665</v>
+      </c>
+      <c r="BQ4" t="n">
         <v>0.706</v>
-      </c>
-      <c r="BQ4" t="n">
-        <v>0.598</v>
       </c>
     </row>
     <row r="5">
@@ -1190,13 +1190,13 @@
         <v>0.318</v>
       </c>
       <c r="E5" t="n">
-        <v>0.455</v>
+        <v>0.543</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08799999999999999</v>
+        <v>0.08400000000000001</v>
       </c>
       <c r="G5" t="n">
-        <v>0.297</v>
+        <v>0.29</v>
       </c>
       <c r="H5" t="n">
         <v>0.531</v>
@@ -1217,22 +1217,22 @@
         <v>0.334</v>
       </c>
       <c r="N5" t="n">
-        <v>0.655</v>
+        <v>0.741</v>
       </c>
       <c r="O5" t="n">
-        <v>0.09</v>
+        <v>0.077</v>
       </c>
       <c r="P5" t="n">
-        <v>0.301</v>
+        <v>0.277</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.012</v>
+        <v>0.016</v>
       </c>
       <c r="R5" t="n">
-        <v>0.006</v>
+        <v>0.007</v>
       </c>
       <c r="S5" t="n">
-        <v>0.076</v>
+        <v>0.083</v>
       </c>
       <c r="T5" t="n">
         <v>0.376</v>
@@ -1244,13 +1244,13 @@
         <v>0.335</v>
       </c>
       <c r="W5" t="n">
-        <v>0.24</v>
+        <v>0.279</v>
       </c>
       <c r="X5" t="n">
-        <v>0.106</v>
+        <v>0.109</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.325</v>
+        <v>0.331</v>
       </c>
       <c r="Z5" t="n">
         <v>0.539</v>
@@ -1280,13 +1280,13 @@
         <v>0.282</v>
       </c>
       <c r="AI5" t="n">
-        <v>0.257</v>
+        <v>0.316</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0.08599999999999999</v>
+        <v>0.099</v>
       </c>
       <c r="AK5" t="n">
-        <v>0.293</v>
+        <v>0.314</v>
       </c>
       <c r="AL5" t="n">
         <v>0.389</v>
@@ -1316,13 +1316,13 @@
         <v>0.39</v>
       </c>
       <c r="AU5" t="n">
-        <v>0.314</v>
+        <v>0.373</v>
       </c>
       <c r="AV5" t="n">
-        <v>0.077</v>
+        <v>0.093</v>
       </c>
       <c r="AW5" t="n">
-        <v>0.278</v>
+        <v>0.304</v>
       </c>
       <c r="AX5" t="n">
         <v>1.369</v>
@@ -1334,13 +1334,13 @@
         <v>0.281</v>
       </c>
       <c r="BA5" t="n">
-        <v>1.159</v>
+        <v>1.336</v>
       </c>
       <c r="BB5" t="n">
-        <v>0.079</v>
+        <v>0.08</v>
       </c>
       <c r="BC5" t="n">
-        <v>0.281</v>
+        <v>0.283</v>
       </c>
       <c r="BD5" t="n">
         <v>0.388</v>
@@ -1352,13 +1352,13 @@
         <v>0.216</v>
       </c>
       <c r="BG5" t="n">
-        <v>0.335</v>
+        <v>0.394</v>
       </c>
       <c r="BH5" t="n">
-        <v>0.052</v>
+        <v>0.051</v>
       </c>
       <c r="BI5" t="n">
-        <v>0.227</v>
+        <v>0.226</v>
       </c>
       <c r="BJ5" t="n">
         <v>0.544</v>
@@ -1370,19 +1370,19 @@
         <v>0.257</v>
       </c>
       <c r="BM5" t="n">
-        <v>0.482</v>
+        <v>0.552</v>
       </c>
       <c r="BN5" t="n">
-        <v>0.077</v>
+        <v>0.064</v>
       </c>
       <c r="BO5" t="n">
-        <v>0.277</v>
+        <v>0.254</v>
       </c>
       <c r="BP5" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="BQ5" t="n">
         <v>0.456</v>
-      </c>
-      <c r="BQ5" t="n">
-        <v>0.386</v>
       </c>
     </row>
     <row r="6">
@@ -1397,7 +1397,7 @@
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="n">
-        <v>0.401</v>
+        <v>0.477</v>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
@@ -1412,12 +1412,12 @@
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="n">
-        <v>0.495</v>
+        <v>0.55</v>
       </c>
       <c r="O6" t="inlineStr"/>
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="n">
-        <v>0.012</v>
+        <v>0.019</v>
       </c>
       <c r="R6" t="inlineStr"/>
       <c r="S6" t="inlineStr"/>
@@ -1427,7 +1427,7 @@
       <c r="U6" t="inlineStr"/>
       <c r="V6" t="inlineStr"/>
       <c r="W6" t="n">
-        <v>0.245</v>
+        <v>0.284</v>
       </c>
       <c r="X6" t="inlineStr"/>
       <c r="Y6" t="inlineStr"/>
@@ -1447,7 +1447,7 @@
       <c r="AG6" t="inlineStr"/>
       <c r="AH6" t="inlineStr"/>
       <c r="AI6" t="n">
-        <v>0.251</v>
+        <v>0.305</v>
       </c>
       <c r="AJ6" t="inlineStr"/>
       <c r="AK6" t="inlineStr"/>
@@ -1467,7 +1467,7 @@
       <c r="AS6" t="inlineStr"/>
       <c r="AT6" t="inlineStr"/>
       <c r="AU6" t="n">
-        <v>0.22</v>
+        <v>0.254</v>
       </c>
       <c r="AV6" t="inlineStr"/>
       <c r="AW6" t="inlineStr"/>
@@ -1477,7 +1477,7 @@
       <c r="AY6" t="inlineStr"/>
       <c r="AZ6" t="inlineStr"/>
       <c r="BA6" t="n">
-        <v>1.401</v>
+        <v>1.592</v>
       </c>
       <c r="BB6" t="inlineStr"/>
       <c r="BC6" t="inlineStr"/>
@@ -1487,7 +1487,7 @@
       <c r="BE6" t="inlineStr"/>
       <c r="BF6" t="inlineStr"/>
       <c r="BG6" t="n">
-        <v>0.441</v>
+        <v>0.511</v>
       </c>
       <c r="BH6" t="inlineStr"/>
       <c r="BI6" t="inlineStr"/>
@@ -1497,15 +1497,15 @@
       <c r="BK6" t="inlineStr"/>
       <c r="BL6" t="inlineStr"/>
       <c r="BM6" t="n">
-        <v>0.55</v>
+        <v>0.622</v>
       </c>
       <c r="BN6" t="inlineStr"/>
       <c r="BO6" t="inlineStr"/>
       <c r="BP6" t="n">
+        <v>0.531</v>
+      </c>
+      <c r="BQ6" t="n">
         <v>0.551</v>
-      </c>
-      <c r="BQ6" t="n">
-        <v>0.467</v>
       </c>
     </row>
     <row r="7">
@@ -1520,7 +1520,7 @@
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="n">
-        <v>0.432</v>
+        <v>0.514</v>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
@@ -1535,12 +1535,12 @@
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="n">
-        <v>0.58</v>
+        <v>0.65</v>
       </c>
       <c r="O7" t="inlineStr"/>
       <c r="P7" t="inlineStr"/>
       <c r="Q7" t="n">
-        <v>0.012</v>
+        <v>0.017</v>
       </c>
       <c r="R7" t="inlineStr"/>
       <c r="S7" t="inlineStr"/>
@@ -1550,7 +1550,7 @@
       <c r="U7" t="inlineStr"/>
       <c r="V7" t="inlineStr"/>
       <c r="W7" t="n">
-        <v>0.242</v>
+        <v>0.281</v>
       </c>
       <c r="X7" t="inlineStr"/>
       <c r="Y7" t="inlineStr"/>
@@ -1570,7 +1570,7 @@
       <c r="AG7" t="inlineStr"/>
       <c r="AH7" t="inlineStr"/>
       <c r="AI7" t="n">
-        <v>0.255</v>
+        <v>0.312</v>
       </c>
       <c r="AJ7" t="inlineStr"/>
       <c r="AK7" t="inlineStr"/>
@@ -1590,7 +1590,7 @@
       <c r="AS7" t="inlineStr"/>
       <c r="AT7" t="inlineStr"/>
       <c r="AU7" t="n">
-        <v>0.268</v>
+        <v>0.314</v>
       </c>
       <c r="AV7" t="inlineStr"/>
       <c r="AW7" t="inlineStr"/>
@@ -1600,7 +1600,7 @@
       <c r="AY7" t="inlineStr"/>
       <c r="AZ7" t="inlineStr"/>
       <c r="BA7" t="n">
-        <v>1.244</v>
+        <v>1.427</v>
       </c>
       <c r="BB7" t="inlineStr"/>
       <c r="BC7" t="inlineStr"/>
@@ -1610,7 +1610,7 @@
       <c r="BE7" t="inlineStr"/>
       <c r="BF7" t="inlineStr"/>
       <c r="BG7" t="n">
-        <v>0.371</v>
+        <v>0.434</v>
       </c>
       <c r="BH7" t="inlineStr"/>
       <c r="BI7" t="inlineStr"/>
@@ -1620,15 +1620,15 @@
       <c r="BK7" t="inlineStr"/>
       <c r="BL7" t="inlineStr"/>
       <c r="BM7" t="n">
-        <v>0.507</v>
+        <v>0.578</v>
       </c>
       <c r="BN7" t="inlineStr"/>
       <c r="BO7" t="inlineStr"/>
       <c r="BP7" t="n">
+        <v>0.476</v>
+      </c>
+      <c r="BQ7" t="n">
         <v>0.49</v>
-      </c>
-      <c r="BQ7" t="n">
-        <v>0.415</v>
       </c>
     </row>
     <row r="8">
@@ -1647,13 +1647,13 @@
         <v>0.366</v>
       </c>
       <c r="E8" t="n">
-        <v>0.525</v>
+        <v>0.609</v>
       </c>
       <c r="F8" t="n">
-        <v>0.128</v>
+        <v>0.109</v>
       </c>
       <c r="G8" t="n">
-        <v>0.358</v>
+        <v>0.331</v>
       </c>
       <c r="H8" t="n">
         <v>0.464</v>
@@ -1674,22 +1674,22 @@
         <v>0.345</v>
       </c>
       <c r="N8" t="n">
-        <v>0.7</v>
+        <v>0.781</v>
       </c>
       <c r="O8" t="n">
-        <v>0.095</v>
+        <v>0.061</v>
       </c>
       <c r="P8" t="n">
-        <v>0.309</v>
+        <v>0.246</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.016</v>
+        <v>0.017</v>
       </c>
       <c r="R8" t="n">
         <v>0.012</v>
       </c>
       <c r="S8" t="n">
-        <v>0.107</v>
+        <v>0.108</v>
       </c>
       <c r="T8" t="n">
         <v>0.4</v>
@@ -1701,7 +1701,7 @@
         <v>0.365</v>
       </c>
       <c r="W8" t="n">
-        <v>0.265</v>
+        <v>0.307</v>
       </c>
       <c r="X8" t="n">
         <v>0.121</v>
@@ -1737,13 +1737,13 @@
         <v>0.312</v>
       </c>
       <c r="AI8" t="n">
-        <v>0.286</v>
+        <v>0.338</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0.116</v>
+        <v>0.129</v>
       </c>
       <c r="AK8" t="n">
-        <v>0.341</v>
+        <v>0.359</v>
       </c>
       <c r="AL8" t="n">
         <v>0.384</v>
@@ -1773,13 +1773,13 @@
         <v>0.311</v>
       </c>
       <c r="AU8" t="n">
-        <v>0.281</v>
+        <v>0.315</v>
       </c>
       <c r="AV8" t="n">
         <v>0.08400000000000001</v>
       </c>
       <c r="AW8" t="n">
-        <v>0.289</v>
+        <v>0.29</v>
       </c>
       <c r="AX8" t="n">
         <v>1.808</v>
@@ -1791,13 +1791,13 @@
         <v>0.329</v>
       </c>
       <c r="BA8" t="n">
-        <v>1.563</v>
+        <v>1.74</v>
       </c>
       <c r="BB8" t="n">
-        <v>0.131</v>
+        <v>0.125</v>
       </c>
       <c r="BC8" t="n">
-        <v>0.362</v>
+        <v>0.353</v>
       </c>
       <c r="BD8" t="n">
         <v>0.569</v>
@@ -1809,13 +1809,13 @@
         <v>0.321</v>
       </c>
       <c r="BG8" t="n">
-        <v>0.501</v>
+        <v>0.5620000000000001</v>
       </c>
       <c r="BH8" t="n">
-        <v>0.124</v>
+        <v>0.107</v>
       </c>
       <c r="BI8" t="n">
-        <v>0.352</v>
+        <v>0.327</v>
       </c>
       <c r="BJ8" t="n">
         <v>0.717</v>
@@ -1827,19 +1827,19 @@
         <v>0.27</v>
       </c>
       <c r="BM8" t="n">
-        <v>0.619</v>
+        <v>0.6929999999999999</v>
       </c>
       <c r="BN8" t="n">
-        <v>0.102</v>
+        <v>0.066</v>
       </c>
       <c r="BO8" t="n">
-        <v>0.319</v>
+        <v>0.257</v>
       </c>
       <c r="BP8" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="BQ8" t="n">
         <v>0.603</v>
-      </c>
-      <c r="BQ8" t="n">
-        <v>0.521</v>
       </c>
     </row>
     <row r="9">
@@ -1858,13 +1858,13 @@
         <v>0.487</v>
       </c>
       <c r="E9" t="n">
-        <v>0.478</v>
+        <v>0.554</v>
       </c>
       <c r="F9" t="n">
-        <v>0.25</v>
+        <v>0.247</v>
       </c>
       <c r="G9" t="n">
-        <v>0.5</v>
+        <v>0.497</v>
       </c>
       <c r="H9" t="n">
         <v>0.216</v>
@@ -1885,13 +1885,13 @@
         <v>0.5</v>
       </c>
       <c r="N9" t="n">
-        <v>0.62</v>
+        <v>0.6850000000000001</v>
       </c>
       <c r="O9" t="n">
-        <v>0.236</v>
+        <v>0.216</v>
       </c>
       <c r="P9" t="n">
-        <v>0.485</v>
+        <v>0.465</v>
       </c>
       <c r="Q9" t="n">
         <v>0.011</v>
@@ -1912,13 +1912,13 @@
         <v>0.447</v>
       </c>
       <c r="W9" t="n">
-        <v>0.185</v>
+        <v>0.207</v>
       </c>
       <c r="X9" t="n">
-        <v>0.151</v>
+        <v>0.164</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.388</v>
+        <v>0.405</v>
       </c>
       <c r="Z9" t="n">
         <v>0.328</v>
@@ -1948,13 +1948,13 @@
         <v>0.354</v>
       </c>
       <c r="AI9" t="n">
-        <v>0.217</v>
+        <v>0.261</v>
       </c>
       <c r="AJ9" t="n">
-        <v>0.17</v>
+        <v>0.193</v>
       </c>
       <c r="AK9" t="n">
-        <v>0.412</v>
+        <v>0.439</v>
       </c>
       <c r="AL9" t="n">
         <v>0.224</v>
@@ -2002,13 +2002,13 @@
         <v>0.498</v>
       </c>
       <c r="BA9" t="n">
-        <v>1.544</v>
+        <v>1.696</v>
       </c>
       <c r="BB9" t="n">
-        <v>0.244</v>
+        <v>0.247</v>
       </c>
       <c r="BC9" t="n">
-        <v>0.494</v>
+        <v>0.497</v>
       </c>
       <c r="BD9" t="n">
         <v>0.603</v>
@@ -2020,13 +2020,13 @@
         <v>0.489</v>
       </c>
       <c r="BG9" t="n">
-        <v>0.533</v>
+        <v>0.598</v>
       </c>
       <c r="BH9" t="n">
-        <v>0.249</v>
+        <v>0.24</v>
       </c>
       <c r="BI9" t="n">
-        <v>0.499</v>
+        <v>0.49</v>
       </c>
       <c r="BJ9" t="n">
         <v>0.6899999999999999</v>
@@ -2038,19 +2038,19 @@
         <v>0.463</v>
       </c>
       <c r="BM9" t="n">
-        <v>0.587</v>
+        <v>0.652</v>
       </c>
       <c r="BN9" t="n">
-        <v>0.242</v>
+        <v>0.227</v>
       </c>
       <c r="BO9" t="n">
-        <v>0.492</v>
+        <v>0.476</v>
       </c>
       <c r="BP9" t="n">
+        <v>0.5649999999999999</v>
+      </c>
+      <c r="BQ9" t="n">
         <v>0.583</v>
-      </c>
-      <c r="BQ9" t="n">
-        <v>0.515</v>
       </c>
     </row>
     <row r="10">
@@ -2069,13 +2069,13 @@
         <v>0.481</v>
       </c>
       <c r="E10" t="n">
-        <v>0.598</v>
+        <v>0.6850000000000001</v>
       </c>
       <c r="F10" t="n">
-        <v>0.24</v>
+        <v>0.216</v>
       </c>
       <c r="G10" t="n">
-        <v>0.49</v>
+        <v>0.465</v>
       </c>
       <c r="H10" t="n">
         <v>0.543</v>
@@ -2096,13 +2096,13 @@
         <v>0.447</v>
       </c>
       <c r="N10" t="n">
-        <v>0.783</v>
+        <v>0.88</v>
       </c>
       <c r="O10" t="n">
-        <v>0.17</v>
+        <v>0.105</v>
       </c>
       <c r="P10" t="n">
-        <v>0.412</v>
+        <v>0.324</v>
       </c>
       <c r="Q10" t="n">
         <v>0.022</v>
@@ -2123,13 +2123,13 @@
         <v>0.5</v>
       </c>
       <c r="W10" t="n">
-        <v>0.337</v>
+        <v>0.38</v>
       </c>
       <c r="X10" t="n">
-        <v>0.223</v>
+        <v>0.236</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.473</v>
+        <v>0.485</v>
       </c>
       <c r="Z10" t="n">
         <v>0.578</v>
@@ -2159,13 +2159,13 @@
         <v>0.438</v>
       </c>
       <c r="AI10" t="n">
-        <v>0.326</v>
+        <v>0.37</v>
       </c>
       <c r="AJ10" t="n">
-        <v>0.22</v>
+        <v>0.233</v>
       </c>
       <c r="AK10" t="n">
-        <v>0.469</v>
+        <v>0.483</v>
       </c>
       <c r="AL10" t="n">
         <v>0.422</v>
@@ -2195,13 +2195,13 @@
         <v>0.491</v>
       </c>
       <c r="AU10" t="n">
-        <v>0.283</v>
+        <v>0.304</v>
       </c>
       <c r="AV10" t="n">
-        <v>0.203</v>
+        <v>0.212</v>
       </c>
       <c r="AW10" t="n">
-        <v>0.45</v>
+        <v>0.46</v>
       </c>
       <c r="AX10" t="n">
         <v>2.163</v>
@@ -2213,13 +2213,13 @@
         <v>0.483</v>
       </c>
       <c r="BA10" t="n">
-        <v>1.881</v>
+        <v>2.076</v>
       </c>
       <c r="BB10" t="n">
-        <v>0.249</v>
+        <v>0.244</v>
       </c>
       <c r="BC10" t="n">
-        <v>0.499</v>
+        <v>0.494</v>
       </c>
       <c r="BD10" t="n">
         <v>0.672</v>
@@ -2231,13 +2231,13 @@
         <v>0.469</v>
       </c>
       <c r="BG10" t="n">
-        <v>0.587</v>
+        <v>0.652</v>
       </c>
       <c r="BH10" t="n">
-        <v>0.242</v>
+        <v>0.227</v>
       </c>
       <c r="BI10" t="n">
-        <v>0.492</v>
+        <v>0.476</v>
       </c>
       <c r="BJ10" t="n">
         <v>0.862</v>
@@ -2249,19 +2249,19 @@
         <v>0.345</v>
       </c>
       <c r="BM10" t="n">
-        <v>0.761</v>
+        <v>0.848</v>
       </c>
       <c r="BN10" t="n">
-        <v>0.182</v>
+        <v>0.129</v>
       </c>
       <c r="BO10" t="n">
-        <v>0.427</v>
+        <v>0.359</v>
       </c>
       <c r="BP10" t="n">
+        <v>0.6919999999999999</v>
+      </c>
+      <c r="BQ10" t="n">
         <v>0.721</v>
-      </c>
-      <c r="BQ10" t="n">
-        <v>0.627</v>
       </c>
     </row>
     <row r="11">
@@ -2280,13 +2280,13 @@
         <v>0.463</v>
       </c>
       <c r="E11" t="n">
-        <v>0.63</v>
+        <v>0.717</v>
       </c>
       <c r="F11" t="n">
-        <v>0.233</v>
+        <v>0.203</v>
       </c>
       <c r="G11" t="n">
-        <v>0.483</v>
+        <v>0.45</v>
       </c>
       <c r="H11" t="n">
         <v>0.621</v>
@@ -2307,13 +2307,13 @@
         <v>0.438</v>
       </c>
       <c r="N11" t="n">
-        <v>0.804</v>
+        <v>0.902</v>
       </c>
       <c r="O11" t="n">
-        <v>0.157</v>
+        <v>0.08799999999999999</v>
       </c>
       <c r="P11" t="n">
-        <v>0.397</v>
+        <v>0.297</v>
       </c>
       <c r="Q11" t="n">
         <v>0.022</v>
@@ -2334,13 +2334,13 @@
         <v>0.5</v>
       </c>
       <c r="W11" t="n">
-        <v>0.337</v>
+        <v>0.38</v>
       </c>
       <c r="X11" t="n">
-        <v>0.223</v>
+        <v>0.236</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.473</v>
+        <v>0.485</v>
       </c>
       <c r="Z11" t="n">
         <v>0.672</v>
@@ -2370,13 +2370,13 @@
         <v>0.443</v>
       </c>
       <c r="AI11" t="n">
-        <v>0.359</v>
+        <v>0.402</v>
       </c>
       <c r="AJ11" t="n">
-        <v>0.23</v>
+        <v>0.24</v>
       </c>
       <c r="AK11" t="n">
-        <v>0.48</v>
+        <v>0.49</v>
       </c>
       <c r="AL11" t="n">
         <v>0.474</v>
@@ -2406,13 +2406,13 @@
         <v>0.499</v>
       </c>
       <c r="AU11" t="n">
-        <v>0.391</v>
+        <v>0.446</v>
       </c>
       <c r="AV11" t="n">
-        <v>0.238</v>
+        <v>0.247</v>
       </c>
       <c r="AW11" t="n">
-        <v>0.488</v>
+        <v>0.497</v>
       </c>
       <c r="AX11" t="n">
         <v>2.172</v>
@@ -2424,13 +2424,13 @@
         <v>0.481</v>
       </c>
       <c r="BA11" t="n">
-        <v>1.881</v>
+        <v>2.076</v>
       </c>
       <c r="BB11" t="n">
-        <v>0.249</v>
+        <v>0.244</v>
       </c>
       <c r="BC11" t="n">
-        <v>0.499</v>
+        <v>0.494</v>
       </c>
       <c r="BD11" t="n">
         <v>0.672</v>
@@ -2442,13 +2442,13 @@
         <v>0.469</v>
       </c>
       <c r="BG11" t="n">
-        <v>0.587</v>
+        <v>0.652</v>
       </c>
       <c r="BH11" t="n">
-        <v>0.242</v>
+        <v>0.227</v>
       </c>
       <c r="BI11" t="n">
-        <v>0.492</v>
+        <v>0.476</v>
       </c>
       <c r="BJ11" t="n">
         <v>0.862</v>
@@ -2460,19 +2460,19 @@
         <v>0.345</v>
       </c>
       <c r="BM11" t="n">
-        <v>0.761</v>
+        <v>0.848</v>
       </c>
       <c r="BN11" t="n">
-        <v>0.182</v>
+        <v>0.129</v>
       </c>
       <c r="BO11" t="n">
-        <v>0.427</v>
+        <v>0.359</v>
       </c>
       <c r="BP11" t="n">
+        <v>0.6919999999999999</v>
+      </c>
+      <c r="BQ11" t="n">
         <v>0.724</v>
-      </c>
-      <c r="BQ11" t="n">
-        <v>0.627</v>
       </c>
     </row>
     <row r="12">
@@ -2491,13 +2491,13 @@
         <v>1.027</v>
       </c>
       <c r="E12" t="n">
-        <v>1.448</v>
+        <v>1.409</v>
       </c>
       <c r="F12" t="n">
-        <v>0.834</v>
+        <v>0.757</v>
       </c>
       <c r="G12" t="n">
-        <v>0.913</v>
+        <v>0.87</v>
       </c>
       <c r="H12" t="n">
         <v>2.056</v>
@@ -2518,13 +2518,13 @@
         <v>0.705</v>
       </c>
       <c r="N12" t="n">
-        <v>1.474</v>
+        <v>1.471</v>
       </c>
       <c r="O12" t="n">
-        <v>1.118</v>
+        <v>1.049</v>
       </c>
       <c r="P12" t="n">
-        <v>1.057</v>
+        <v>1.024</v>
       </c>
       <c r="Q12" t="n">
         <v>1.5</v>
@@ -2545,13 +2545,13 @@
         <v>0.724</v>
       </c>
       <c r="W12" t="n">
-        <v>1.613</v>
+        <v>1.629</v>
       </c>
       <c r="X12" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.576</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.748</v>
+        <v>0.759</v>
       </c>
       <c r="Z12" t="n">
         <v>1.949</v>
@@ -2581,13 +2581,13 @@
         <v>0.915</v>
       </c>
       <c r="AI12" t="n">
-        <v>1.788</v>
+        <v>1.703</v>
       </c>
       <c r="AJ12" t="n">
-        <v>1.379</v>
+        <v>1.29</v>
       </c>
       <c r="AK12" t="n">
-        <v>1.174</v>
+        <v>1.136</v>
       </c>
       <c r="AL12" t="n">
         <v>2.053</v>
@@ -2617,13 +2617,13 @@
         <v>1.949</v>
       </c>
       <c r="AU12" t="n">
-        <v>2.684</v>
+        <v>2.767</v>
       </c>
       <c r="AV12" t="n">
-        <v>2.848</v>
+        <v>2.737</v>
       </c>
       <c r="AW12" t="n">
-        <v>1.687</v>
+        <v>1.654</v>
       </c>
       <c r="AX12" t="n">
         <v>3.784</v>
@@ -2635,13 +2635,13 @@
         <v>0.735</v>
       </c>
       <c r="BA12" t="n">
-        <v>3.717</v>
+        <v>3.716</v>
       </c>
       <c r="BB12" t="n">
-        <v>0.416</v>
+        <v>0.407</v>
       </c>
       <c r="BC12" t="n">
-        <v>0.645</v>
+        <v>0.638</v>
       </c>
       <c r="BD12" t="n">
         <v>1.115</v>
@@ -2653,13 +2653,13 @@
         <v>0.357</v>
       </c>
       <c r="BG12" t="n">
-        <v>1.111</v>
+        <v>1.1</v>
       </c>
       <c r="BH12" t="n">
-        <v>0.136</v>
+        <v>0.123</v>
       </c>
       <c r="BI12" t="n">
-        <v>0.369</v>
+        <v>0.351</v>
       </c>
       <c r="BJ12" t="n">
         <v>1.25</v>
@@ -2671,19 +2671,19 @@
         <v>0.536</v>
       </c>
       <c r="BM12" t="n">
-        <v>1.3</v>
+        <v>1.295</v>
       </c>
       <c r="BN12" t="n">
-        <v>0.353</v>
+        <v>0.336</v>
       </c>
       <c r="BO12" t="n">
-        <v>0.594</v>
+        <v>0.58</v>
       </c>
       <c r="BP12" t="n">
+        <v>1.239</v>
+      </c>
+      <c r="BQ12" t="n">
         <v>1.261</v>
-      </c>
-      <c r="BQ12" t="n">
-        <v>1.239</v>
       </c>
     </row>
     <row r="13">
@@ -2702,13 +2702,13 @@
         <v>0.588</v>
       </c>
       <c r="E13" t="n">
-        <v>1.523</v>
+        <v>1.585</v>
       </c>
       <c r="F13" t="n">
-        <v>0.419</v>
+        <v>0.659</v>
       </c>
       <c r="G13" t="n">
-        <v>0.647</v>
+        <v>0.8120000000000001</v>
       </c>
       <c r="H13" t="n">
         <v>1.756</v>
@@ -2729,13 +2729,13 @@
         <v>0.639</v>
       </c>
       <c r="N13" t="n">
-        <v>2.009</v>
+        <v>2.064</v>
       </c>
       <c r="O13" t="n">
-        <v>0.786</v>
+        <v>0.947</v>
       </c>
       <c r="P13" t="n">
-        <v>0.886</v>
+        <v>0.973</v>
       </c>
       <c r="Q13" t="n">
         <v>0.543</v>
@@ -2756,13 +2756,13 @@
         <v>0.424</v>
       </c>
       <c r="W13" t="n">
-        <v>1.005</v>
+        <v>1.037</v>
       </c>
       <c r="X13" t="n">
-        <v>0.165</v>
+        <v>0.193</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.406</v>
+        <v>0.439</v>
       </c>
       <c r="Z13" t="n">
         <v>1.516</v>
@@ -2792,13 +2792,13 @@
         <v>0.585</v>
       </c>
       <c r="AI13" t="n">
-        <v>1.231</v>
+        <v>1.28</v>
       </c>
       <c r="AJ13" t="n">
-        <v>0.256</v>
+        <v>0.37</v>
       </c>
       <c r="AK13" t="n">
-        <v>0.506</v>
+        <v>0.608</v>
       </c>
       <c r="AL13" t="n">
         <v>1.488</v>
@@ -2828,13 +2828,13 @@
         <v>1.597</v>
       </c>
       <c r="AU13" t="n">
-        <v>2.216</v>
+        <v>2.285</v>
       </c>
       <c r="AV13" t="n">
-        <v>0.725</v>
+        <v>0.925</v>
       </c>
       <c r="AW13" t="n">
-        <v>0.851</v>
+        <v>0.962</v>
       </c>
       <c r="AX13" t="n">
         <v>2.192</v>
@@ -2846,13 +2846,13 @@
         <v>0.493</v>
       </c>
       <c r="BA13" t="n">
-        <v>2.277</v>
+        <v>2.361</v>
       </c>
       <c r="BB13" t="n">
-        <v>0.252</v>
+        <v>0.3</v>
       </c>
       <c r="BC13" t="n">
-        <v>0.502</v>
+        <v>0.548</v>
       </c>
       <c r="BD13" t="n">
         <v>0.547</v>
@@ -2864,13 +2864,13 @@
         <v>0.218</v>
       </c>
       <c r="BG13" t="n">
-        <v>0.5659999999999999</v>
+        <v>0.584</v>
       </c>
       <c r="BH13" t="n">
-        <v>0.051</v>
+        <v>0.07199999999999999</v>
       </c>
       <c r="BI13" t="n">
-        <v>0.225</v>
+        <v>0.268</v>
       </c>
       <c r="BJ13" t="n">
         <v>0.826</v>
@@ -2882,19 +2882,19 @@
         <v>0.437</v>
       </c>
       <c r="BM13" t="n">
-        <v>0.864</v>
+        <v>0.902</v>
       </c>
       <c r="BN13" t="n">
-        <v>0.19</v>
+        <v>0.283</v>
       </c>
       <c r="BO13" t="n">
-        <v>0.435</v>
+        <v>0.532</v>
       </c>
       <c r="BP13" t="n">
+        <v>0.787</v>
+      </c>
+      <c r="BQ13" t="n">
         <v>0.731</v>
-      </c>
-      <c r="BQ13" t="n">
-        <v>0.759</v>
       </c>
     </row>
   </sheetData>

--- a/stats/avey/disease_type=all failure-type-ignored=any-error for app=WebMD.xlsx
+++ b/stats/avey/disease_type=all failure-type-ignored=any-error for app=WebMD.xlsx
@@ -970,208 +970,208 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.431</v>
+        <v>0.402</v>
       </c>
       <c r="C4" t="n">
-        <v>0.076</v>
+        <v>0.079</v>
       </c>
       <c r="D4" t="n">
-        <v>0.275</v>
+        <v>0.281</v>
       </c>
       <c r="E4" t="n">
-        <v>0.425</v>
+        <v>0.446</v>
       </c>
       <c r="F4" t="n">
-        <v>0.07099999999999999</v>
+        <v>0.073</v>
       </c>
       <c r="G4" t="n">
-        <v>0.266</v>
+        <v>0.271</v>
       </c>
       <c r="H4" t="n">
-        <v>0.337</v>
+        <v>0.38</v>
       </c>
       <c r="I4" t="n">
+        <v>0.067</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.259</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.395</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.062</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.249</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.442</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.068</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.037</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0.034</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0.184</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0.346</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0.111</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0.334</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0.303</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0.112</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0.334</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>0.374</v>
+      </c>
+      <c r="AA4" t="n">
         <v>0.064</v>
       </c>
-      <c r="J4" t="n">
-        <v>0.254</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.411</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0.06900000000000001</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0.262</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0.437</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0.064</v>
-      </c>
-      <c r="P4" t="n">
+      <c r="AB4" t="n">
         <v>0.252</v>
       </c>
-      <c r="Q4" t="n">
-        <v>0.024</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0.017</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="T4" t="n">
+      <c r="AC4" t="n">
+        <v>0.477</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>0.469</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>0.257</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>0.091</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>0.302</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>0.318</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>0.098</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>0.313</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>0.283</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>0.08400000000000001</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>0.289</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>0.506</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>0.394</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>0.183</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>0.029</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>0.216</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>0.173</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>2.125</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>0.149</v>
+      </c>
+      <c r="AZ4" t="n">
         <v>0.386</v>
       </c>
-      <c r="U4" t="n">
-        <v>0.115</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0.339</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0.289</v>
-      </c>
-      <c r="X4" t="n">
-        <v>0.109</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>0.384</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>0.053</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>0.481</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>0.227</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>0.477</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>0.283</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>0.093</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>0.304</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>0.295</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>0.08799999999999999</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>0.297</v>
-      </c>
-      <c r="AL4" t="n">
+      <c r="BA4" t="n">
+        <v>2.079</v>
+      </c>
+      <c r="BB4" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="BC4" t="n">
+        <v>0.394</v>
+      </c>
+      <c r="BD4" t="n">
+        <v>0.782</v>
+      </c>
+      <c r="BE4" t="n">
+        <v>0.121</v>
+      </c>
+      <c r="BF4" t="n">
+        <v>0.348</v>
+      </c>
+      <c r="BG4" t="n">
+        <v>0.782</v>
+      </c>
+      <c r="BH4" t="n">
+        <v>0.123</v>
+      </c>
+      <c r="BI4" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="BJ4" t="n">
+        <v>0.749</v>
+      </c>
+      <c r="BK4" t="n">
+        <v>0.078</v>
+      </c>
+      <c r="BL4" t="n">
+        <v>0.279</v>
+      </c>
+      <c r="BM4" t="n">
+        <v>0.716</v>
+      </c>
+      <c r="BN4" t="n">
+        <v>0.08599999999999999</v>
+      </c>
+      <c r="BO4" t="n">
         <v>0.293</v>
       </c>
-      <c r="AM4" t="n">
-        <v>0.077</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>0.278</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>0.488</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>0.138</v>
-      </c>
-      <c r="AQ4" t="n">
-        <v>0.372</v>
-      </c>
-      <c r="AR4" t="n">
-        <v>0.203</v>
-      </c>
-      <c r="AS4" t="n">
-        <v>0.023</v>
-      </c>
-      <c r="AT4" t="n">
-        <v>0.153</v>
-      </c>
-      <c r="AU4" t="n">
-        <v>0.192</v>
-      </c>
-      <c r="AV4" t="n">
-        <v>0.028</v>
-      </c>
-      <c r="AW4" t="n">
-        <v>0.167</v>
-      </c>
-      <c r="AX4" t="n">
-        <v>2.117</v>
-      </c>
-      <c r="AY4" t="n">
-        <v>0.143</v>
-      </c>
-      <c r="AZ4" t="n">
-        <v>0.379</v>
-      </c>
-      <c r="BA4" t="n">
-        <v>1.996</v>
-      </c>
-      <c r="BB4" t="n">
-        <v>0.159</v>
-      </c>
-      <c r="BC4" t="n">
-        <v>0.399</v>
-      </c>
-      <c r="BD4" t="n">
-        <v>0.749</v>
-      </c>
-      <c r="BE4" t="n">
-        <v>0.131</v>
-      </c>
-      <c r="BF4" t="n">
-        <v>0.361</v>
-      </c>
-      <c r="BG4" t="n">
-        <v>0.726</v>
-      </c>
-      <c r="BH4" t="n">
-        <v>0.142</v>
-      </c>
-      <c r="BI4" t="n">
-        <v>0.377</v>
-      </c>
-      <c r="BJ4" t="n">
-        <v>0.747</v>
-      </c>
-      <c r="BK4" t="n">
-        <v>0.081</v>
-      </c>
-      <c r="BL4" t="n">
-        <v>0.285</v>
-      </c>
-      <c r="BM4" t="n">
-        <v>0.713</v>
-      </c>
-      <c r="BN4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="BO4" t="n">
-        <v>0.282</v>
-      </c>
       <c r="BP4" t="n">
-        <v>0.665</v>
+        <v>0.6929999999999999</v>
       </c>
       <c r="BQ4" t="n">
-        <v>0.706</v>
+        <v>0.708</v>
       </c>
     </row>
     <row r="5">
@@ -1181,43 +1181,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.571</v>
+        <v>0.501</v>
       </c>
       <c r="C5" t="n">
-        <v>0.101</v>
+        <v>0.093</v>
       </c>
       <c r="D5" t="n">
-        <v>0.318</v>
+        <v>0.305</v>
       </c>
       <c r="E5" t="n">
-        <v>0.543</v>
+        <v>0.59</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08400000000000001</v>
+        <v>0.08799999999999999</v>
       </c>
       <c r="G5" t="n">
-        <v>0.29</v>
+        <v>0.297</v>
       </c>
       <c r="H5" t="n">
-        <v>0.531</v>
+        <v>0.595</v>
       </c>
       <c r="I5" t="n">
-        <v>0.136</v>
+        <v>0.126</v>
       </c>
       <c r="J5" t="n">
-        <v>0.368</v>
+        <v>0.355</v>
       </c>
       <c r="K5" t="n">
-        <v>0.632</v>
+        <v>0.629</v>
       </c>
       <c r="L5" t="n">
-        <v>0.112</v>
+        <v>0.116</v>
       </c>
       <c r="M5" t="n">
-        <v>0.334</v>
+        <v>0.341</v>
       </c>
       <c r="N5" t="n">
-        <v>0.741</v>
+        <v>0.74</v>
       </c>
       <c r="O5" t="n">
         <v>0.077</v>
@@ -1226,163 +1226,163 @@
         <v>0.277</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.016</v>
+        <v>0.022</v>
       </c>
       <c r="R5" t="n">
-        <v>0.007</v>
+        <v>0.014</v>
       </c>
       <c r="S5" t="n">
+        <v>0.118</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0.317</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0.094</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0.307</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0.296</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0.107</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>0.327</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0.512</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>0.104</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>0.323</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>0.234</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>0.059</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>0.243</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>0.261</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>0.292</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>0.357</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>0.339</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>0.118</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>0.344</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>0.407</v>
+      </c>
+      <c r="AP5" t="n">
         <v>0.083</v>
       </c>
-      <c r="T5" t="n">
-        <v>0.376</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0.112</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0.335</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0.279</v>
-      </c>
-      <c r="X5" t="n">
+      <c r="AQ5" t="n">
+        <v>0.287</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>0.437</v>
+      </c>
+      <c r="AS5" t="n">
         <v>0.109</v>
       </c>
-      <c r="Y5" t="n">
+      <c r="AT5" t="n">
         <v>0.331</v>
       </c>
-      <c r="Z5" t="n">
-        <v>0.539</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>0.094</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>0.306</v>
-      </c>
-      <c r="AC5" t="n">
+      <c r="AU5" t="n">
+        <v>0.444</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>0.111</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>0.333</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>1.372</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>0.07199999999999999</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>0.268</v>
+      </c>
+      <c r="BA5" t="n">
+        <v>1.402</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>0.079</v>
+      </c>
+      <c r="BC5" t="n">
+        <v>0.281</v>
+      </c>
+      <c r="BD5" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="BE5" t="n">
+        <v>0.043</v>
+      </c>
+      <c r="BF5" t="n">
+        <v>0.207</v>
+      </c>
+      <c r="BG5" t="n">
+        <v>0.414</v>
+      </c>
+      <c r="BH5" t="n">
+        <v>0.049</v>
+      </c>
+      <c r="BI5" t="n">
         <v>0.222</v>
       </c>
-      <c r="AD5" t="n">
-        <v>0.052</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>0.227</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>0.281</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>0.282</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>0.316</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>0.099</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>0.314</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>0.389</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>0.429</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>0.109</v>
-      </c>
-      <c r="AQ5" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="AR5" t="n">
-        <v>0.527</v>
-      </c>
-      <c r="AS5" t="n">
-        <v>0.152</v>
-      </c>
-      <c r="AT5" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="AU5" t="n">
-        <v>0.373</v>
-      </c>
-      <c r="AV5" t="n">
-        <v>0.093</v>
-      </c>
-      <c r="AW5" t="n">
-        <v>0.304</v>
-      </c>
-      <c r="AX5" t="n">
-        <v>1.369</v>
-      </c>
-      <c r="AY5" t="n">
-        <v>0.079</v>
-      </c>
-      <c r="AZ5" t="n">
-        <v>0.281</v>
-      </c>
-      <c r="BA5" t="n">
-        <v>1.336</v>
-      </c>
-      <c r="BB5" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="BC5" t="n">
-        <v>0.283</v>
-      </c>
-      <c r="BD5" t="n">
-        <v>0.388</v>
-      </c>
-      <c r="BE5" t="n">
-        <v>0.047</v>
-      </c>
-      <c r="BF5" t="n">
-        <v>0.216</v>
-      </c>
-      <c r="BG5" t="n">
-        <v>0.394</v>
-      </c>
-      <c r="BH5" t="n">
-        <v>0.051</v>
-      </c>
-      <c r="BI5" t="n">
-        <v>0.226</v>
-      </c>
       <c r="BJ5" t="n">
-        <v>0.544</v>
+        <v>0.5590000000000001</v>
       </c>
       <c r="BK5" t="n">
-        <v>0.066</v>
+        <v>0.058</v>
       </c>
       <c r="BL5" t="n">
-        <v>0.257</v>
+        <v>0.241</v>
       </c>
       <c r="BM5" t="n">
-        <v>0.552</v>
+        <v>0.575</v>
       </c>
       <c r="BN5" t="n">
-        <v>0.064</v>
+        <v>0.067</v>
       </c>
       <c r="BO5" t="n">
-        <v>0.254</v>
+        <v>0.259</v>
       </c>
       <c r="BP5" t="n">
-        <v>0.445</v>
+        <v>0.467</v>
       </c>
       <c r="BQ5" t="n">
-        <v>0.456</v>
+        <v>0.457</v>
       </c>
     </row>
     <row r="6">
@@ -1392,120 +1392,120 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.491</v>
+        <v>0.446</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="n">
-        <v>0.477</v>
+        <v>0.508</v>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="n">
-        <v>0.412</v>
+        <v>0.464</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="n">
-        <v>0.498</v>
+        <v>0.485</v>
       </c>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="n">
-        <v>0.55</v>
+        <v>0.553</v>
       </c>
       <c r="O6" t="inlineStr"/>
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="n">
-        <v>0.019</v>
+        <v>0.028</v>
       </c>
       <c r="R6" t="inlineStr"/>
       <c r="S6" t="inlineStr"/>
       <c r="T6" t="n">
-        <v>0.381</v>
+        <v>0.331</v>
       </c>
       <c r="U6" t="inlineStr"/>
       <c r="V6" t="inlineStr"/>
       <c r="W6" t="n">
-        <v>0.284</v>
+        <v>0.299</v>
       </c>
       <c r="X6" t="inlineStr"/>
       <c r="Y6" t="inlineStr"/>
       <c r="Z6" t="n">
-        <v>0.448</v>
+        <v>0.432</v>
       </c>
       <c r="AA6" t="inlineStr"/>
       <c r="AB6" t="inlineStr"/>
       <c r="AC6" t="n">
-        <v>0.304</v>
+        <v>0.314</v>
       </c>
       <c r="AD6" t="inlineStr"/>
       <c r="AE6" t="inlineStr"/>
       <c r="AF6" t="n">
-        <v>0.282</v>
+        <v>0.259</v>
       </c>
       <c r="AG6" t="inlineStr"/>
       <c r="AH6" t="inlineStr"/>
       <c r="AI6" t="n">
-        <v>0.305</v>
+        <v>0.336</v>
       </c>
       <c r="AJ6" t="inlineStr"/>
       <c r="AK6" t="inlineStr"/>
       <c r="AL6" t="n">
-        <v>0.334</v>
+        <v>0.321</v>
       </c>
       <c r="AM6" t="inlineStr"/>
       <c r="AN6" t="inlineStr"/>
       <c r="AO6" t="n">
-        <v>0.457</v>
+        <v>0.451</v>
       </c>
       <c r="AP6" t="inlineStr"/>
       <c r="AQ6" t="inlineStr"/>
       <c r="AR6" t="n">
-        <v>0.293</v>
+        <v>0.258</v>
       </c>
       <c r="AS6" t="inlineStr"/>
       <c r="AT6" t="inlineStr"/>
       <c r="AU6" t="n">
-        <v>0.254</v>
+        <v>0.291</v>
       </c>
       <c r="AV6" t="inlineStr"/>
       <c r="AW6" t="inlineStr"/>
       <c r="AX6" t="n">
-        <v>1.654</v>
+        <v>1.656</v>
       </c>
       <c r="AY6" t="inlineStr"/>
       <c r="AZ6" t="inlineStr"/>
       <c r="BA6" t="n">
-        <v>1.592</v>
+        <v>1.662</v>
       </c>
       <c r="BB6" t="inlineStr"/>
       <c r="BC6" t="inlineStr"/>
       <c r="BD6" t="n">
-        <v>0.511</v>
+        <v>0.529</v>
       </c>
       <c r="BE6" t="inlineStr"/>
       <c r="BF6" t="inlineStr"/>
       <c r="BG6" t="n">
-        <v>0.511</v>
+        <v>0.541</v>
       </c>
       <c r="BH6" t="inlineStr"/>
       <c r="BI6" t="inlineStr"/>
       <c r="BJ6" t="n">
-        <v>0.63</v>
+        <v>0.64</v>
       </c>
       <c r="BK6" t="inlineStr"/>
       <c r="BL6" t="inlineStr"/>
       <c r="BM6" t="n">
-        <v>0.622</v>
+        <v>0.638</v>
       </c>
       <c r="BN6" t="inlineStr"/>
       <c r="BO6" t="inlineStr"/>
       <c r="BP6" t="n">
-        <v>0.531</v>
+        <v>0.554</v>
       </c>
       <c r="BQ6" t="n">
-        <v>0.551</v>
+        <v>0.552</v>
       </c>
     </row>
     <row r="7">
@@ -1515,120 +1515,120 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.536</v>
+        <v>0.477</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="n">
-        <v>0.514</v>
+        <v>0.554</v>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="n">
-        <v>0.476</v>
+        <v>0.535</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="n">
-        <v>0.571</v>
+        <v>0.5620000000000001</v>
       </c>
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="n">
-        <v>0.65</v>
+        <v>0.652</v>
       </c>
       <c r="O7" t="inlineStr"/>
       <c r="P7" t="inlineStr"/>
       <c r="Q7" t="n">
-        <v>0.017</v>
+        <v>0.024</v>
       </c>
       <c r="R7" t="inlineStr"/>
       <c r="S7" t="inlineStr"/>
       <c r="T7" t="n">
-        <v>0.378</v>
+        <v>0.322</v>
       </c>
       <c r="U7" t="inlineStr"/>
       <c r="V7" t="inlineStr"/>
       <c r="W7" t="n">
-        <v>0.281</v>
+        <v>0.297</v>
       </c>
       <c r="X7" t="inlineStr"/>
       <c r="Y7" t="inlineStr"/>
       <c r="Z7" t="n">
-        <v>0.499</v>
+        <v>0.477</v>
       </c>
       <c r="AA7" t="inlineStr"/>
       <c r="AB7" t="inlineStr"/>
       <c r="AC7" t="n">
-        <v>0.249</v>
+        <v>0.261</v>
       </c>
       <c r="AD7" t="inlineStr"/>
       <c r="AE7" t="inlineStr"/>
       <c r="AF7" t="n">
-        <v>0.281</v>
+        <v>0.26</v>
       </c>
       <c r="AG7" t="inlineStr"/>
       <c r="AH7" t="inlineStr"/>
       <c r="AI7" t="n">
-        <v>0.312</v>
+        <v>0.348</v>
       </c>
       <c r="AJ7" t="inlineStr"/>
       <c r="AK7" t="inlineStr"/>
       <c r="AL7" t="n">
-        <v>0.365</v>
+        <v>0.349</v>
       </c>
       <c r="AM7" t="inlineStr"/>
       <c r="AN7" t="inlineStr"/>
       <c r="AO7" t="n">
-        <v>0.44</v>
+        <v>0.424</v>
       </c>
       <c r="AP7" t="inlineStr"/>
       <c r="AQ7" t="inlineStr"/>
       <c r="AR7" t="n">
-        <v>0.399</v>
+        <v>0.342</v>
       </c>
       <c r="AS7" t="inlineStr"/>
       <c r="AT7" t="inlineStr"/>
       <c r="AU7" t="n">
-        <v>0.314</v>
+        <v>0.367</v>
       </c>
       <c r="AV7" t="inlineStr"/>
       <c r="AW7" t="inlineStr"/>
       <c r="AX7" t="n">
-        <v>1.469</v>
+        <v>1.472</v>
       </c>
       <c r="AY7" t="inlineStr"/>
       <c r="AZ7" t="inlineStr"/>
       <c r="BA7" t="n">
-        <v>1.427</v>
+        <v>1.494</v>
       </c>
       <c r="BB7" t="inlineStr"/>
       <c r="BC7" t="inlineStr"/>
       <c r="BD7" t="n">
-        <v>0.429</v>
+        <v>0.443</v>
       </c>
       <c r="BE7" t="inlineStr"/>
       <c r="BF7" t="inlineStr"/>
       <c r="BG7" t="n">
-        <v>0.434</v>
+        <v>0.457</v>
       </c>
       <c r="BH7" t="inlineStr"/>
       <c r="BI7" t="inlineStr"/>
       <c r="BJ7" t="n">
-        <v>0.575</v>
+        <v>0.589</v>
       </c>
       <c r="BK7" t="inlineStr"/>
       <c r="BL7" t="inlineStr"/>
       <c r="BM7" t="n">
-        <v>0.578</v>
+        <v>0.599</v>
       </c>
       <c r="BN7" t="inlineStr"/>
       <c r="BO7" t="inlineStr"/>
       <c r="BP7" t="n">
-        <v>0.476</v>
+        <v>0.498</v>
       </c>
       <c r="BQ7" t="n">
-        <v>0.49</v>
+        <v>0.491</v>
       </c>
     </row>
     <row r="8">
@@ -1638,61 +1638,61 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.575</v>
+        <v>0.543</v>
       </c>
       <c r="C8" t="n">
-        <v>0.134</v>
+        <v>0.117</v>
       </c>
       <c r="D8" t="n">
-        <v>0.366</v>
+        <v>0.342</v>
       </c>
       <c r="E8" t="n">
-        <v>0.609</v>
+        <v>0.636</v>
       </c>
       <c r="F8" t="n">
-        <v>0.109</v>
+        <v>0.104</v>
       </c>
       <c r="G8" t="n">
-        <v>0.331</v>
+        <v>0.323</v>
       </c>
       <c r="H8" t="n">
-        <v>0.464</v>
+        <v>0.621</v>
       </c>
       <c r="I8" t="n">
-        <v>0.118</v>
+        <v>0.128</v>
       </c>
       <c r="J8" t="n">
-        <v>0.343</v>
+        <v>0.358</v>
       </c>
       <c r="K8" t="n">
-        <v>0.631</v>
+        <v>0.675</v>
       </c>
       <c r="L8" t="n">
-        <v>0.119</v>
+        <v>0.112</v>
       </c>
       <c r="M8" t="n">
-        <v>0.345</v>
+        <v>0.334</v>
       </c>
       <c r="N8" t="n">
-        <v>0.781</v>
+        <v>0.78</v>
       </c>
       <c r="O8" t="n">
-        <v>0.061</v>
+        <v>0.057</v>
       </c>
       <c r="P8" t="n">
-        <v>0.246</v>
+        <v>0.24</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.017</v>
+        <v>0.025</v>
       </c>
       <c r="R8" t="n">
-        <v>0.012</v>
+        <v>0.019</v>
       </c>
       <c r="S8" t="n">
-        <v>0.108</v>
+        <v>0.138</v>
       </c>
       <c r="T8" t="n">
-        <v>0.4</v>
+        <v>0.367</v>
       </c>
       <c r="U8" t="n">
         <v>0.133</v>
@@ -1701,145 +1701,145 @@
         <v>0.365</v>
       </c>
       <c r="W8" t="n">
-        <v>0.307</v>
+        <v>0.333</v>
       </c>
       <c r="X8" t="n">
-        <v>0.121</v>
+        <v>0.138</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.347</v>
+        <v>0.372</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.514</v>
+        <v>0.523</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.112</v>
+        <v>0.125</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.335</v>
+        <v>0.353</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.338</v>
+        <v>0.33</v>
       </c>
       <c r="AD8" t="n">
         <v>0.131</v>
       </c>
       <c r="AE8" t="n">
-        <v>0.362</v>
+        <v>0.361</v>
       </c>
       <c r="AF8" t="n">
-        <v>0.258</v>
+        <v>0.278</v>
       </c>
       <c r="AG8" t="n">
-        <v>0.097</v>
+        <v>0.117</v>
       </c>
       <c r="AH8" t="n">
-        <v>0.312</v>
+        <v>0.341</v>
       </c>
       <c r="AI8" t="n">
+        <v>0.368</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>0.137</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>0.386</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>0.138</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>0.372</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>0.487</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>0.123</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>0.351</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>0.371</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>0.106</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>0.401</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>0.114</v>
+      </c>
+      <c r="AW8" t="n">
         <v>0.338</v>
       </c>
-      <c r="AJ8" t="n">
-        <v>0.129</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>0.359</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>0.384</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>0.133</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>0.365</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="AP8" t="n">
-        <v>0.136</v>
-      </c>
-      <c r="AQ8" t="n">
-        <v>0.369</v>
-      </c>
-      <c r="AR8" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="AS8" t="n">
-        <v>0.097</v>
-      </c>
-      <c r="AT8" t="n">
-        <v>0.311</v>
-      </c>
-      <c r="AU8" t="n">
-        <v>0.315</v>
-      </c>
-      <c r="AV8" t="n">
-        <v>0.08400000000000001</v>
-      </c>
-      <c r="AW8" t="n">
-        <v>0.29</v>
-      </c>
       <c r="AX8" t="n">
-        <v>1.808</v>
+        <v>1.84</v>
       </c>
       <c r="AY8" t="n">
-        <v>0.108</v>
+        <v>0.117</v>
       </c>
       <c r="AZ8" t="n">
-        <v>0.329</v>
+        <v>0.342</v>
       </c>
       <c r="BA8" t="n">
-        <v>1.74</v>
+        <v>1.838</v>
       </c>
       <c r="BB8" t="n">
-        <v>0.125</v>
+        <v>0.124</v>
       </c>
       <c r="BC8" t="n">
         <v>0.353</v>
       </c>
       <c r="BD8" t="n">
-        <v>0.569</v>
+        <v>0.581</v>
       </c>
       <c r="BE8" t="n">
-        <v>0.103</v>
+        <v>0.096</v>
       </c>
       <c r="BF8" t="n">
-        <v>0.321</v>
+        <v>0.31</v>
       </c>
       <c r="BG8" t="n">
-        <v>0.5620000000000001</v>
+        <v>0.584</v>
       </c>
       <c r="BH8" t="n">
-        <v>0.107</v>
+        <v>0.099</v>
       </c>
       <c r="BI8" t="n">
-        <v>0.327</v>
+        <v>0.314</v>
       </c>
       <c r="BJ8" t="n">
-        <v>0.717</v>
+        <v>0.733</v>
       </c>
       <c r="BK8" t="n">
-        <v>0.073</v>
+        <v>0.052</v>
       </c>
       <c r="BL8" t="n">
-        <v>0.27</v>
+        <v>0.228</v>
       </c>
       <c r="BM8" t="n">
-        <v>0.6929999999999999</v>
+        <v>0.735</v>
       </c>
       <c r="BN8" t="n">
-        <v>0.066</v>
+        <v>0.06</v>
       </c>
       <c r="BO8" t="n">
-        <v>0.257</v>
+        <v>0.244</v>
       </c>
       <c r="BP8" t="n">
-        <v>0.58</v>
+        <v>0.613</v>
       </c>
       <c r="BQ8" t="n">
-        <v>0.603</v>
+        <v>0.613</v>
       </c>
     </row>
     <row r="9">
@@ -1849,208 +1849,208 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.388</v>
+        <v>0.443</v>
       </c>
       <c r="C9" t="n">
-        <v>0.237</v>
+        <v>0.247</v>
       </c>
       <c r="D9" t="n">
-        <v>0.487</v>
+        <v>0.497</v>
       </c>
       <c r="E9" t="n">
-        <v>0.554</v>
+        <v>0.543</v>
       </c>
       <c r="F9" t="n">
-        <v>0.247</v>
+        <v>0.248</v>
       </c>
       <c r="G9" t="n">
-        <v>0.497</v>
+        <v>0.498</v>
       </c>
       <c r="H9" t="n">
-        <v>0.216</v>
+        <v>0.528</v>
       </c>
       <c r="I9" t="n">
-        <v>0.169</v>
+        <v>0.249</v>
       </c>
       <c r="J9" t="n">
-        <v>0.411</v>
+        <v>0.499</v>
       </c>
       <c r="K9" t="n">
-        <v>0.517</v>
+        <v>0.61</v>
       </c>
       <c r="L9" t="n">
+        <v>0.238</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.488</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.6870000000000001</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0.464</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0.024</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0.023</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0.153</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0.307</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0.213</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0.461</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0.273</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0.198</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>0.394</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>0.239</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>0.489</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>0.226</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>0.212</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>0.167</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>0.286</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>0.204</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>0.452</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>0.284</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>0.203</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>0.451</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>0.434</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>0.246</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>0.496</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>0.166</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>0.407</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>0.251</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>0.188</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>0.434</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AY9" t="n">
         <v>0.25</v>
       </c>
-      <c r="M9" t="n">
+      <c r="AZ9" t="n">
         <v>0.5</v>
       </c>
-      <c r="N9" t="n">
-        <v>0.6850000000000001</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0.216</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0.465</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0.011</v>
-      </c>
-      <c r="R9" t="n">
-        <v>0.011</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0.104</v>
-      </c>
-      <c r="T9" t="n">
-        <v>0.276</v>
-      </c>
-      <c r="U9" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="V9" t="n">
-        <v>0.447</v>
-      </c>
-      <c r="W9" t="n">
-        <v>0.207</v>
-      </c>
-      <c r="X9" t="n">
-        <v>0.164</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>0.405</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>0.328</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>0.469</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>0.362</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>0.231</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>0.481</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>0.147</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>0.125</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>0.354</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>0.261</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>0.193</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>0.439</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>0.224</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>0.174</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>0.417</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>0.414</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>0.243</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>0.493</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>0.138</v>
-      </c>
-      <c r="AS9" t="n">
-        <v>0.119</v>
-      </c>
-      <c r="AT9" t="n">
-        <v>0.345</v>
-      </c>
-      <c r="AU9" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="AV9" t="n">
-        <v>0.113</v>
-      </c>
-      <c r="AW9" t="n">
-        <v>0.337</v>
-      </c>
-      <c r="AX9" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="AY9" t="n">
-        <v>0.248</v>
-      </c>
-      <c r="AZ9" t="n">
-        <v>0.498</v>
-      </c>
       <c r="BA9" t="n">
-        <v>1.696</v>
+        <v>1.842</v>
       </c>
       <c r="BB9" t="n">
-        <v>0.247</v>
+        <v>0.25</v>
       </c>
       <c r="BC9" t="n">
-        <v>0.497</v>
+        <v>0.5</v>
       </c>
       <c r="BD9" t="n">
-        <v>0.603</v>
+        <v>0.617</v>
       </c>
       <c r="BE9" t="n">
-        <v>0.239</v>
+        <v>0.236</v>
       </c>
       <c r="BF9" t="n">
-        <v>0.489</v>
+        <v>0.486</v>
       </c>
       <c r="BG9" t="n">
-        <v>0.598</v>
+        <v>0.618</v>
       </c>
       <c r="BH9" t="n">
-        <v>0.24</v>
+        <v>0.236</v>
       </c>
       <c r="BI9" t="n">
-        <v>0.49</v>
+        <v>0.486</v>
       </c>
       <c r="BJ9" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.733</v>
       </c>
       <c r="BK9" t="n">
-        <v>0.214</v>
+        <v>0.196</v>
       </c>
       <c r="BL9" t="n">
-        <v>0.463</v>
+        <v>0.442</v>
       </c>
       <c r="BM9" t="n">
-        <v>0.652</v>
+        <v>0.727</v>
       </c>
       <c r="BN9" t="n">
-        <v>0.227</v>
+        <v>0.198</v>
       </c>
       <c r="BO9" t="n">
-        <v>0.476</v>
+        <v>0.445</v>
       </c>
       <c r="BP9" t="n">
-        <v>0.5649999999999999</v>
+        <v>0.614</v>
       </c>
       <c r="BQ9" t="n">
-        <v>0.583</v>
+        <v>0.617</v>
       </c>
     </row>
     <row r="10">
@@ -2060,208 +2060,208 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.638</v>
+        <v>0.633</v>
       </c>
       <c r="C10" t="n">
-        <v>0.231</v>
+        <v>0.232</v>
       </c>
       <c r="D10" t="n">
-        <v>0.481</v>
+        <v>0.482</v>
       </c>
       <c r="E10" t="n">
-        <v>0.6850000000000001</v>
+        <v>0.714</v>
       </c>
       <c r="F10" t="n">
+        <v>0.204</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.452</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.712</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.453</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.771</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.176</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.888</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0.316</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0.027</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0.026</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0.161</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0.451</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0.248</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0.498</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0.242</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>0.492</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>0.238</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>0.488</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>0.383</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>0.236</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>0.486</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>0.316</v>
+      </c>
+      <c r="AG10" t="n">
         <v>0.216</v>
       </c>
-      <c r="G10" t="n">
+      <c r="AH10" t="n">
         <v>0.465</v>
       </c>
-      <c r="H10" t="n">
-        <v>0.543</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0.248</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0.498</v>
-      </c>
-      <c r="K10" t="n">
+      <c r="AI10" t="n">
+        <v>0.396</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>0.239</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>0.489</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>0.447</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>0.247</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>0.497</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>0.572</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>0.495</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>0.383</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>0.236</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>0.486</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>0.242</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>0.492</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>2.204</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>0.234</v>
+      </c>
+      <c r="AZ10" t="n">
+        <v>0.484</v>
+      </c>
+      <c r="BA10" t="n">
+        <v>2.173</v>
+      </c>
+      <c r="BB10" t="n">
+        <v>0.237</v>
+      </c>
+      <c r="BC10" t="n">
+        <v>0.487</v>
+      </c>
+      <c r="BD10" t="n">
+        <v>0.6889999999999999</v>
+      </c>
+      <c r="BE10" t="n">
+        <v>0.214</v>
+      </c>
+      <c r="BF10" t="n">
+        <v>0.463</v>
+      </c>
+      <c r="BG10" t="n">
+        <v>0.679</v>
+      </c>
+      <c r="BH10" t="n">
+        <v>0.218</v>
+      </c>
+      <c r="BI10" t="n">
+        <v>0.467</v>
+      </c>
+      <c r="BJ10" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="BK10" t="n">
+        <v>0.098</v>
+      </c>
+      <c r="BL10" t="n">
+        <v>0.313</v>
+      </c>
+      <c r="BM10" t="n">
+        <v>0.882</v>
+      </c>
+      <c r="BN10" t="n">
+        <v>0.104</v>
+      </c>
+      <c r="BO10" t="n">
+        <v>0.322</v>
+      </c>
+      <c r="BP10" t="n">
         <v>0.724</v>
       </c>
-      <c r="L10" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0.447</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0.105</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0.324</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0.022</v>
-      </c>
-      <c r="R10" t="n">
-        <v>0.021</v>
-      </c>
-      <c r="S10" t="n">
-        <v>0.146</v>
-      </c>
-      <c r="T10" t="n">
-        <v>0.491</v>
-      </c>
-      <c r="U10" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="V10" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="W10" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="X10" t="n">
-        <v>0.236</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>0.485</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>0.578</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>0.244</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>0.494</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>0.414</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>0.243</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>0.493</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>0.259</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>0.192</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>0.438</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>0.233</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>0.483</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>0.422</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>0.244</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>0.494</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>0.543</v>
-      </c>
-      <c r="AP10" t="n">
-        <v>0.248</v>
-      </c>
-      <c r="AQ10" t="n">
-        <v>0.498</v>
-      </c>
-      <c r="AR10" t="n">
-        <v>0.405</v>
-      </c>
-      <c r="AS10" t="n">
-        <v>0.241</v>
-      </c>
-      <c r="AT10" t="n">
-        <v>0.491</v>
-      </c>
-      <c r="AU10" t="n">
-        <v>0.304</v>
-      </c>
-      <c r="AV10" t="n">
-        <v>0.212</v>
-      </c>
-      <c r="AW10" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="AX10" t="n">
-        <v>2.163</v>
-      </c>
-      <c r="AY10" t="n">
-        <v>0.233</v>
-      </c>
-      <c r="AZ10" t="n">
-        <v>0.483</v>
-      </c>
-      <c r="BA10" t="n">
-        <v>2.076</v>
-      </c>
-      <c r="BB10" t="n">
-        <v>0.244</v>
-      </c>
-      <c r="BC10" t="n">
-        <v>0.494</v>
-      </c>
-      <c r="BD10" t="n">
-        <v>0.672</v>
-      </c>
-      <c r="BE10" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="BF10" t="n">
-        <v>0.469</v>
-      </c>
-      <c r="BG10" t="n">
-        <v>0.652</v>
-      </c>
-      <c r="BH10" t="n">
-        <v>0.227</v>
-      </c>
-      <c r="BI10" t="n">
-        <v>0.476</v>
-      </c>
-      <c r="BJ10" t="n">
-        <v>0.862</v>
-      </c>
-      <c r="BK10" t="n">
-        <v>0.119</v>
-      </c>
-      <c r="BL10" t="n">
-        <v>0.345</v>
-      </c>
-      <c r="BM10" t="n">
-        <v>0.848</v>
-      </c>
-      <c r="BN10" t="n">
-        <v>0.129</v>
-      </c>
-      <c r="BO10" t="n">
-        <v>0.359</v>
-      </c>
-      <c r="BP10" t="n">
-        <v>0.6919999999999999</v>
-      </c>
       <c r="BQ10" t="n">
-        <v>0.721</v>
+        <v>0.735</v>
       </c>
     </row>
     <row r="11">
@@ -2271,115 +2271,115 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.68</v>
       </c>
       <c r="C11" t="n">
-        <v>0.214</v>
+        <v>0.218</v>
       </c>
       <c r="D11" t="n">
-        <v>0.463</v>
+        <v>0.466</v>
       </c>
       <c r="E11" t="n">
-        <v>0.717</v>
+        <v>0.765</v>
       </c>
       <c r="F11" t="n">
-        <v>0.203</v>
+        <v>0.18</v>
       </c>
       <c r="G11" t="n">
-        <v>0.45</v>
+        <v>0.424</v>
       </c>
       <c r="H11" t="n">
-        <v>0.621</v>
+        <v>0.756</v>
       </c>
       <c r="I11" t="n">
-        <v>0.235</v>
+        <v>0.184</v>
       </c>
       <c r="J11" t="n">
-        <v>0.485</v>
+        <v>0.429</v>
       </c>
       <c r="K11" t="n">
-        <v>0.741</v>
+        <v>0.803</v>
       </c>
       <c r="L11" t="n">
-        <v>0.192</v>
+        <v>0.158</v>
       </c>
       <c r="M11" t="n">
-        <v>0.438</v>
+        <v>0.398</v>
       </c>
       <c r="N11" t="n">
-        <v>0.902</v>
+        <v>0.917</v>
       </c>
       <c r="O11" t="n">
-        <v>0.08799999999999999</v>
+        <v>0.076</v>
       </c>
       <c r="P11" t="n">
-        <v>0.297</v>
+        <v>0.276</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.022</v>
+        <v>0.029</v>
       </c>
       <c r="R11" t="n">
-        <v>0.021</v>
+        <v>0.029</v>
       </c>
       <c r="S11" t="n">
-        <v>0.146</v>
+        <v>0.169</v>
       </c>
       <c r="T11" t="n">
-        <v>0.491</v>
+        <v>0.453</v>
       </c>
       <c r="U11" t="n">
-        <v>0.25</v>
+        <v>0.248</v>
       </c>
       <c r="V11" t="n">
-        <v>0.5</v>
+        <v>0.498</v>
       </c>
       <c r="W11" t="n">
-        <v>0.38</v>
+        <v>0.409</v>
       </c>
       <c r="X11" t="n">
-        <v>0.236</v>
+        <v>0.242</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.485</v>
+        <v>0.492</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.672</v>
+        <v>0.655</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.22</v>
+        <v>0.226</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.469</v>
+        <v>0.475</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.414</v>
+        <v>0.388</v>
       </c>
       <c r="AD11" t="n">
-        <v>0.243</v>
+        <v>0.237</v>
       </c>
       <c r="AE11" t="n">
-        <v>0.493</v>
+        <v>0.487</v>
       </c>
       <c r="AF11" t="n">
-        <v>0.267</v>
+        <v>0.337</v>
       </c>
       <c r="AG11" t="n">
-        <v>0.196</v>
+        <v>0.223</v>
       </c>
       <c r="AH11" t="n">
-        <v>0.443</v>
+        <v>0.473</v>
       </c>
       <c r="AI11" t="n">
-        <v>0.402</v>
+        <v>0.422</v>
       </c>
       <c r="AJ11" t="n">
-        <v>0.24</v>
+        <v>0.244</v>
       </c>
       <c r="AK11" t="n">
-        <v>0.49</v>
+        <v>0.494</v>
       </c>
       <c r="AL11" t="n">
-        <v>0.474</v>
+        <v>0.472</v>
       </c>
       <c r="AM11" t="n">
         <v>0.249</v>
@@ -2388,16 +2388,16 @@
         <v>0.499</v>
       </c>
       <c r="AO11" t="n">
-        <v>0.569</v>
+        <v>0.597</v>
       </c>
       <c r="AP11" t="n">
-        <v>0.245</v>
+        <v>0.241</v>
       </c>
       <c r="AQ11" t="n">
-        <v>0.495</v>
+        <v>0.49</v>
       </c>
       <c r="AR11" t="n">
-        <v>0.466</v>
+        <v>0.475</v>
       </c>
       <c r="AS11" t="n">
         <v>0.249</v>
@@ -2406,73 +2406,73 @@
         <v>0.499</v>
       </c>
       <c r="AU11" t="n">
-        <v>0.446</v>
+        <v>0.505</v>
       </c>
       <c r="AV11" t="n">
-        <v>0.247</v>
+        <v>0.25</v>
       </c>
       <c r="AW11" t="n">
-        <v>0.497</v>
+        <v>0.5</v>
       </c>
       <c r="AX11" t="n">
-        <v>2.172</v>
+        <v>2.219</v>
       </c>
       <c r="AY11" t="n">
-        <v>0.231</v>
+        <v>0.232</v>
       </c>
       <c r="AZ11" t="n">
         <v>0.481</v>
       </c>
       <c r="BA11" t="n">
-        <v>2.076</v>
+        <v>2.185</v>
       </c>
       <c r="BB11" t="n">
-        <v>0.244</v>
+        <v>0.236</v>
       </c>
       <c r="BC11" t="n">
-        <v>0.494</v>
+        <v>0.486</v>
       </c>
       <c r="BD11" t="n">
-        <v>0.672</v>
+        <v>0.6909999999999999</v>
       </c>
       <c r="BE11" t="n">
-        <v>0.22</v>
+        <v>0.214</v>
       </c>
       <c r="BF11" t="n">
-        <v>0.469</v>
+        <v>0.462</v>
       </c>
       <c r="BG11" t="n">
-        <v>0.652</v>
+        <v>0.6820000000000001</v>
       </c>
       <c r="BH11" t="n">
-        <v>0.227</v>
+        <v>0.217</v>
       </c>
       <c r="BI11" t="n">
-        <v>0.476</v>
+        <v>0.466</v>
       </c>
       <c r="BJ11" t="n">
-        <v>0.862</v>
+        <v>0.892</v>
       </c>
       <c r="BK11" t="n">
-        <v>0.119</v>
+        <v>0.096</v>
       </c>
       <c r="BL11" t="n">
-        <v>0.345</v>
+        <v>0.31</v>
       </c>
       <c r="BM11" t="n">
-        <v>0.848</v>
+        <v>0.885</v>
       </c>
       <c r="BN11" t="n">
-        <v>0.129</v>
+        <v>0.102</v>
       </c>
       <c r="BO11" t="n">
-        <v>0.359</v>
+        <v>0.319</v>
       </c>
       <c r="BP11" t="n">
-        <v>0.6919999999999999</v>
+        <v>0.728</v>
       </c>
       <c r="BQ11" t="n">
-        <v>0.724</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="12">
@@ -2482,208 +2482,208 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.712</v>
+        <v>1.579</v>
       </c>
       <c r="C12" t="n">
-        <v>1.055</v>
+        <v>0.9419999999999999</v>
       </c>
       <c r="D12" t="n">
-        <v>1.027</v>
+        <v>0.97</v>
       </c>
       <c r="E12" t="n">
-        <v>1.409</v>
+        <v>1.521</v>
       </c>
       <c r="F12" t="n">
-        <v>0.757</v>
+        <v>0.97</v>
       </c>
       <c r="G12" t="n">
-        <v>0.87</v>
+        <v>0.985</v>
       </c>
       <c r="H12" t="n">
-        <v>2.056</v>
+        <v>1.496</v>
       </c>
       <c r="I12" t="n">
-        <v>1.275</v>
+        <v>0.866</v>
       </c>
       <c r="J12" t="n">
-        <v>1.129</v>
+        <v>0.931</v>
       </c>
       <c r="K12" t="n">
-        <v>1.407</v>
+        <v>1.385</v>
       </c>
       <c r="L12" t="n">
-        <v>0.497</v>
+        <v>0.648</v>
       </c>
       <c r="M12" t="n">
-        <v>0.705</v>
+        <v>0.805</v>
       </c>
       <c r="N12" t="n">
-        <v>1.471</v>
+        <v>1.441</v>
       </c>
       <c r="O12" t="n">
-        <v>1.049</v>
+        <v>0.857</v>
       </c>
       <c r="P12" t="n">
-        <v>1.024</v>
+        <v>0.926</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.5</v>
+        <v>1.364</v>
       </c>
       <c r="R12" t="n">
-        <v>0.25</v>
+        <v>0.777</v>
       </c>
       <c r="S12" t="n">
-        <v>0.5</v>
+        <v>0.881</v>
       </c>
       <c r="T12" t="n">
-        <v>1.579</v>
+        <v>1.416</v>
       </c>
       <c r="U12" t="n">
-        <v>0.524</v>
+        <v>0.439</v>
       </c>
       <c r="V12" t="n">
-        <v>0.724</v>
+        <v>0.663</v>
       </c>
       <c r="W12" t="n">
-        <v>1.629</v>
+        <v>1.425</v>
       </c>
       <c r="X12" t="n">
-        <v>0.576</v>
+        <v>0.427</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.759</v>
+        <v>0.654</v>
       </c>
       <c r="Z12" t="n">
-        <v>1.949</v>
+        <v>1.67</v>
       </c>
       <c r="AA12" t="n">
-        <v>1.356</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AB12" t="n">
-        <v>1.165</v>
+        <v>0.969</v>
       </c>
       <c r="AC12" t="n">
-        <v>1.146</v>
+        <v>1.137</v>
       </c>
       <c r="AD12" t="n">
-        <v>0.166</v>
+        <v>0.194</v>
       </c>
       <c r="AE12" t="n">
-        <v>0.408</v>
+        <v>0.441</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.742</v>
+        <v>1.616</v>
       </c>
       <c r="AG12" t="n">
-        <v>0.837</v>
+        <v>0.928</v>
       </c>
       <c r="AH12" t="n">
-        <v>0.915</v>
+        <v>0.963</v>
       </c>
       <c r="AI12" t="n">
-        <v>1.703</v>
+        <v>1.635</v>
       </c>
       <c r="AJ12" t="n">
-        <v>1.29</v>
+        <v>1.125</v>
       </c>
       <c r="AK12" t="n">
-        <v>1.136</v>
+        <v>1.061</v>
       </c>
       <c r="AL12" t="n">
-        <v>2.053</v>
+        <v>1.724</v>
       </c>
       <c r="AM12" t="n">
-        <v>2.05</v>
+        <v>1.454</v>
       </c>
       <c r="AN12" t="n">
-        <v>1.432</v>
+        <v>1.206</v>
       </c>
       <c r="AO12" t="n">
-        <v>1.588</v>
+        <v>1.502</v>
       </c>
       <c r="AP12" t="n">
-        <v>1.595</v>
+        <v>1.029</v>
       </c>
       <c r="AQ12" t="n">
-        <v>1.263</v>
+        <v>1.014</v>
       </c>
       <c r="AR12" t="n">
-        <v>3.015</v>
+        <v>2.595</v>
       </c>
       <c r="AS12" t="n">
-        <v>3.8</v>
+        <v>3.261</v>
       </c>
       <c r="AT12" t="n">
-        <v>1.949</v>
+        <v>1.806</v>
       </c>
       <c r="AU12" t="n">
-        <v>2.767</v>
+        <v>2.185</v>
       </c>
       <c r="AV12" t="n">
-        <v>2.737</v>
+        <v>2.243</v>
       </c>
       <c r="AW12" t="n">
-        <v>1.654</v>
+        <v>1.498</v>
       </c>
       <c r="AX12" t="n">
-        <v>3.784</v>
+        <v>3.648</v>
       </c>
       <c r="AY12" t="n">
-        <v>0.541</v>
+        <v>0.39</v>
       </c>
       <c r="AZ12" t="n">
-        <v>0.735</v>
+        <v>0.624</v>
       </c>
       <c r="BA12" t="n">
-        <v>3.716</v>
+        <v>3.604</v>
       </c>
       <c r="BB12" t="n">
-        <v>0.407</v>
+        <v>0.324</v>
       </c>
       <c r="BC12" t="n">
-        <v>0.638</v>
+        <v>0.57</v>
       </c>
       <c r="BD12" t="n">
-        <v>1.115</v>
+        <v>1.138</v>
       </c>
       <c r="BE12" t="n">
-        <v>0.128</v>
+        <v>0.186</v>
       </c>
       <c r="BF12" t="n">
-        <v>0.357</v>
+        <v>0.432</v>
       </c>
       <c r="BG12" t="n">
-        <v>1.1</v>
+        <v>1.122</v>
       </c>
       <c r="BH12" t="n">
-        <v>0.123</v>
+        <v>0.17</v>
       </c>
       <c r="BI12" t="n">
-        <v>0.351</v>
+        <v>0.412</v>
       </c>
       <c r="BJ12" t="n">
-        <v>1.25</v>
+        <v>1.227</v>
       </c>
       <c r="BK12" t="n">
-        <v>0.287</v>
+        <v>0.304</v>
       </c>
       <c r="BL12" t="n">
-        <v>0.536</v>
+        <v>0.551</v>
       </c>
       <c r="BM12" t="n">
-        <v>1.295</v>
+        <v>1.235</v>
       </c>
       <c r="BN12" t="n">
-        <v>0.336</v>
+        <v>0.33</v>
       </c>
       <c r="BO12" t="n">
-        <v>0.58</v>
+        <v>0.575</v>
       </c>
       <c r="BP12" t="n">
-        <v>1.239</v>
+        <v>1.201</v>
       </c>
       <c r="BQ12" t="n">
-        <v>1.261</v>
+        <v>1.216</v>
       </c>
     </row>
     <row r="13">
@@ -2693,208 +2693,208 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.503</v>
+        <v>1.457</v>
       </c>
       <c r="C13" t="n">
-        <v>0.346</v>
+        <v>0.353</v>
       </c>
       <c r="D13" t="n">
-        <v>0.588</v>
+        <v>0.594</v>
       </c>
       <c r="E13" t="n">
-        <v>1.585</v>
+        <v>1.586</v>
       </c>
       <c r="F13" t="n">
-        <v>0.659</v>
+        <v>0.467</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8120000000000001</v>
+        <v>0.6830000000000001</v>
       </c>
       <c r="H13" t="n">
-        <v>1.756</v>
+        <v>1.781</v>
       </c>
       <c r="I13" t="n">
-        <v>0.463</v>
+        <v>0.46</v>
       </c>
       <c r="J13" t="n">
-        <v>0.681</v>
+        <v>0.678</v>
       </c>
       <c r="K13" t="n">
-        <v>1.743</v>
+        <v>1.784</v>
       </c>
       <c r="L13" t="n">
-        <v>0.408</v>
+        <v>0.451</v>
       </c>
       <c r="M13" t="n">
-        <v>0.639</v>
+        <v>0.672</v>
       </c>
       <c r="N13" t="n">
-        <v>2.064</v>
+        <v>2.083</v>
       </c>
       <c r="O13" t="n">
-        <v>0.947</v>
+        <v>1.062</v>
       </c>
       <c r="P13" t="n">
-        <v>0.973</v>
+        <v>1.03</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.543</v>
+        <v>0.539</v>
       </c>
       <c r="R13" t="n">
-        <v>0.098</v>
+        <v>0.08</v>
       </c>
       <c r="S13" t="n">
-        <v>0.313</v>
+        <v>0.283</v>
       </c>
       <c r="T13" t="n">
-        <v>1.032</v>
+        <v>0.987</v>
       </c>
       <c r="U13" t="n">
         <v>0.179</v>
       </c>
       <c r="V13" t="n">
-        <v>0.424</v>
+        <v>0.423</v>
       </c>
       <c r="W13" t="n">
-        <v>1.037</v>
+        <v>1.058</v>
       </c>
       <c r="X13" t="n">
-        <v>0.193</v>
+        <v>0.211</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.439</v>
+        <v>0.459</v>
       </c>
       <c r="Z13" t="n">
-        <v>1.516</v>
+        <v>1.518</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.349</v>
+        <v>0.317</v>
       </c>
       <c r="AB13" t="n">
-        <v>0.591</v>
+        <v>0.5629999999999999</v>
       </c>
       <c r="AC13" t="n">
-        <v>0.537</v>
+        <v>0.556</v>
       </c>
       <c r="AD13" t="n">
-        <v>0.106</v>
+        <v>0.098</v>
       </c>
       <c r="AE13" t="n">
-        <v>0.325</v>
+        <v>0.313</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.103</v>
+        <v>1.146</v>
       </c>
       <c r="AG13" t="n">
-        <v>0.342</v>
+        <v>0.328</v>
       </c>
       <c r="AH13" t="n">
+        <v>0.573</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>1.292</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>0.323</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>0.569</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>1.529</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>1.151</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>0.775</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>2.782</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>1.166</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>2.313</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>0.773</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>0.879</v>
+      </c>
+      <c r="AX13" t="n">
+        <v>2.264</v>
+      </c>
+      <c r="AY13" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AZ13" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="BA13" t="n">
+        <v>2.387</v>
+      </c>
+      <c r="BB13" t="n">
+        <v>0.277</v>
+      </c>
+      <c r="BC13" t="n">
+        <v>0.526</v>
+      </c>
+      <c r="BD13" t="n">
+        <v>0.5590000000000001</v>
+      </c>
+      <c r="BE13" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="BF13" t="n">
+        <v>0.274</v>
+      </c>
+      <c r="BG13" t="n">
         <v>0.585</v>
       </c>
-      <c r="AI13" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>0.608</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>1.488</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>0.626</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>0.791</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>1.128</v>
-      </c>
-      <c r="AP13" t="n">
-        <v>0.806</v>
-      </c>
-      <c r="AQ13" t="n">
-        <v>0.898</v>
-      </c>
-      <c r="AR13" t="n">
-        <v>2.934</v>
-      </c>
-      <c r="AS13" t="n">
-        <v>2.549</v>
-      </c>
-      <c r="AT13" t="n">
-        <v>1.597</v>
-      </c>
-      <c r="AU13" t="n">
-        <v>2.285</v>
-      </c>
-      <c r="AV13" t="n">
-        <v>0.925</v>
-      </c>
-      <c r="AW13" t="n">
-        <v>0.962</v>
-      </c>
-      <c r="AX13" t="n">
-        <v>2.192</v>
-      </c>
-      <c r="AY13" t="n">
-        <v>0.243</v>
-      </c>
-      <c r="AZ13" t="n">
-        <v>0.493</v>
-      </c>
-      <c r="BA13" t="n">
-        <v>2.361</v>
-      </c>
-      <c r="BB13" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="BC13" t="n">
-        <v>0.548</v>
-      </c>
-      <c r="BD13" t="n">
-        <v>0.547</v>
-      </c>
-      <c r="BE13" t="n">
-        <v>0.047</v>
-      </c>
-      <c r="BF13" t="n">
-        <v>0.218</v>
-      </c>
-      <c r="BG13" t="n">
-        <v>0.584</v>
-      </c>
       <c r="BH13" t="n">
-        <v>0.07199999999999999</v>
+        <v>0.094</v>
       </c>
       <c r="BI13" t="n">
-        <v>0.268</v>
+        <v>0.307</v>
       </c>
       <c r="BJ13" t="n">
-        <v>0.826</v>
+        <v>0.851</v>
       </c>
       <c r="BK13" t="n">
-        <v>0.191</v>
+        <v>0.199</v>
       </c>
       <c r="BL13" t="n">
-        <v>0.437</v>
+        <v>0.446</v>
       </c>
       <c r="BM13" t="n">
-        <v>0.902</v>
+        <v>0.92</v>
       </c>
       <c r="BN13" t="n">
-        <v>0.283</v>
+        <v>0.242</v>
       </c>
       <c r="BO13" t="n">
-        <v>0.532</v>
+        <v>0.492</v>
       </c>
       <c r="BP13" t="n">
-        <v>0.787</v>
+        <v>0.796</v>
       </c>
       <c r="BQ13" t="n">
-        <v>0.731</v>
+        <v>0.755</v>
       </c>
     </row>
   </sheetData>

--- a/stats/avey/disease_type=all failure-type-ignored=any-error for app=WebMD.xlsx
+++ b/stats/avey/disease_type=all failure-type-ignored=any-error for app=WebMD.xlsx
@@ -970,16 +970,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.402</v>
+        <v>0.403</v>
       </c>
       <c r="C4" t="n">
-        <v>0.079</v>
+        <v>0.078</v>
       </c>
       <c r="D4" t="n">
-        <v>0.281</v>
+        <v>0.28</v>
       </c>
       <c r="E4" t="n">
-        <v>0.446</v>
+        <v>0.445</v>
       </c>
       <c r="F4" t="n">
         <v>0.073</v>
@@ -988,7 +988,7 @@
         <v>0.271</v>
       </c>
       <c r="H4" t="n">
-        <v>0.38</v>
+        <v>0.382</v>
       </c>
       <c r="I4" t="n">
         <v>0.067</v>
@@ -997,16 +997,16 @@
         <v>0.259</v>
       </c>
       <c r="K4" t="n">
-        <v>0.395</v>
+        <v>0.396</v>
       </c>
       <c r="L4" t="n">
-        <v>0.062</v>
+        <v>0.061</v>
       </c>
       <c r="M4" t="n">
-        <v>0.249</v>
+        <v>0.247</v>
       </c>
       <c r="N4" t="n">
-        <v>0.442</v>
+        <v>0.444</v>
       </c>
       <c r="O4" t="n">
         <v>0.068</v>
@@ -1018,67 +1018,67 @@
         <v>0.037</v>
       </c>
       <c r="R4" t="n">
-        <v>0.034</v>
+        <v>0.033</v>
       </c>
       <c r="S4" t="n">
-        <v>0.184</v>
+        <v>0.182</v>
       </c>
       <c r="T4" t="n">
-        <v>0.346</v>
+        <v>0.345</v>
       </c>
       <c r="U4" t="n">
-        <v>0.111</v>
+        <v>0.112</v>
       </c>
       <c r="V4" t="n">
         <v>0.334</v>
       </c>
       <c r="W4" t="n">
-        <v>0.303</v>
+        <v>0.3</v>
       </c>
       <c r="X4" t="n">
-        <v>0.112</v>
+        <v>0.111</v>
       </c>
       <c r="Y4" t="n">
         <v>0.334</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.374</v>
+        <v>0.372</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.064</v>
+        <v>0.063</v>
       </c>
       <c r="AB4" t="n">
         <v>0.252</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.477</v>
+        <v>0.478</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.22</v>
+        <v>0.221</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.469</v>
+        <v>0.47</v>
       </c>
       <c r="AF4" t="n">
         <v>0.257</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.091</v>
+        <v>0.092</v>
       </c>
       <c r="AH4" t="n">
-        <v>0.302</v>
+        <v>0.303</v>
       </c>
       <c r="AI4" t="n">
-        <v>0.318</v>
+        <v>0.316</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0.098</v>
+        <v>0.097</v>
       </c>
       <c r="AK4" t="n">
-        <v>0.313</v>
+        <v>0.312</v>
       </c>
       <c r="AL4" t="n">
-        <v>0.283</v>
+        <v>0.284</v>
       </c>
       <c r="AM4" t="n">
         <v>0.08400000000000001</v>
@@ -1087,70 +1087,70 @@
         <v>0.289</v>
       </c>
       <c r="AO4" t="n">
-        <v>0.506</v>
+        <v>0.508</v>
       </c>
       <c r="AP4" t="n">
         <v>0.155</v>
       </c>
       <c r="AQ4" t="n">
-        <v>0.394</v>
+        <v>0.393</v>
       </c>
       <c r="AR4" t="n">
         <v>0.183</v>
       </c>
       <c r="AS4" t="n">
-        <v>0.029</v>
+        <v>0.028</v>
       </c>
       <c r="AT4" t="n">
-        <v>0.17</v>
+        <v>0.169</v>
       </c>
       <c r="AU4" t="n">
-        <v>0.216</v>
+        <v>0.218</v>
       </c>
       <c r="AV4" t="n">
         <v>0.03</v>
       </c>
       <c r="AW4" t="n">
-        <v>0.173</v>
+        <v>0.174</v>
       </c>
       <c r="AX4" t="n">
-        <v>2.125</v>
+        <v>2.131</v>
       </c>
       <c r="AY4" t="n">
-        <v>0.149</v>
+        <v>0.148</v>
       </c>
       <c r="AZ4" t="n">
-        <v>0.386</v>
+        <v>0.385</v>
       </c>
       <c r="BA4" t="n">
-        <v>2.079</v>
+        <v>2.08</v>
       </c>
       <c r="BB4" t="n">
-        <v>0.155</v>
+        <v>0.154</v>
       </c>
       <c r="BC4" t="n">
-        <v>0.394</v>
+        <v>0.392</v>
       </c>
       <c r="BD4" t="n">
-        <v>0.782</v>
+        <v>0.783</v>
       </c>
       <c r="BE4" t="n">
-        <v>0.121</v>
+        <v>0.12</v>
       </c>
       <c r="BF4" t="n">
-        <v>0.348</v>
+        <v>0.347</v>
       </c>
       <c r="BG4" t="n">
-        <v>0.782</v>
+        <v>0.78</v>
       </c>
       <c r="BH4" t="n">
         <v>0.123</v>
       </c>
       <c r="BI4" t="n">
-        <v>0.35</v>
+        <v>0.351</v>
       </c>
       <c r="BJ4" t="n">
-        <v>0.749</v>
+        <v>0.751</v>
       </c>
       <c r="BK4" t="n">
         <v>0.078</v>
@@ -1159,7 +1159,7 @@
         <v>0.279</v>
       </c>
       <c r="BM4" t="n">
-        <v>0.716</v>
+        <v>0.717</v>
       </c>
       <c r="BN4" t="n">
         <v>0.08599999999999999</v>
@@ -1171,7 +1171,7 @@
         <v>0.6929999999999999</v>
       </c>
       <c r="BQ4" t="n">
-        <v>0.708</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="5">
@@ -1181,13 +1181,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.501</v>
+        <v>0.502</v>
       </c>
       <c r="C5" t="n">
-        <v>0.093</v>
+        <v>0.092</v>
       </c>
       <c r="D5" t="n">
-        <v>0.305</v>
+        <v>0.303</v>
       </c>
       <c r="E5" t="n">
         <v>0.59</v>
@@ -1199,31 +1199,31 @@
         <v>0.297</v>
       </c>
       <c r="H5" t="n">
-        <v>0.595</v>
+        <v>0.598</v>
       </c>
       <c r="I5" t="n">
         <v>0.126</v>
       </c>
       <c r="J5" t="n">
-        <v>0.355</v>
+        <v>0.354</v>
       </c>
       <c r="K5" t="n">
-        <v>0.629</v>
+        <v>0.631</v>
       </c>
       <c r="L5" t="n">
-        <v>0.116</v>
+        <v>0.115</v>
       </c>
       <c r="M5" t="n">
-        <v>0.341</v>
+        <v>0.339</v>
       </c>
       <c r="N5" t="n">
-        <v>0.74</v>
+        <v>0.742</v>
       </c>
       <c r="O5" t="n">
-        <v>0.077</v>
+        <v>0.076</v>
       </c>
       <c r="P5" t="n">
-        <v>0.277</v>
+        <v>0.276</v>
       </c>
       <c r="Q5" t="n">
         <v>0.022</v>
@@ -1232,28 +1232,28 @@
         <v>0.014</v>
       </c>
       <c r="S5" t="n">
-        <v>0.118</v>
+        <v>0.117</v>
       </c>
       <c r="T5" t="n">
         <v>0.317</v>
       </c>
       <c r="U5" t="n">
-        <v>0.094</v>
+        <v>0.095</v>
       </c>
       <c r="V5" t="n">
-        <v>0.307</v>
+        <v>0.308</v>
       </c>
       <c r="W5" t="n">
-        <v>0.296</v>
+        <v>0.294</v>
       </c>
       <c r="X5" t="n">
         <v>0.107</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.327</v>
+        <v>0.326</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.512</v>
+        <v>0.508</v>
       </c>
       <c r="AA5" t="n">
         <v>0.104</v>
@@ -1262,16 +1262,16 @@
         <v>0.323</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.234</v>
+        <v>0.233</v>
       </c>
       <c r="AD5" t="n">
         <v>0.059</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.243</v>
+        <v>0.242</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.261</v>
+        <v>0.26</v>
       </c>
       <c r="AG5" t="n">
         <v>0.08500000000000001</v>
@@ -1280,16 +1280,16 @@
         <v>0.292</v>
       </c>
       <c r="AI5" t="n">
-        <v>0.357</v>
+        <v>0.354</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0.115</v>
+        <v>0.114</v>
       </c>
       <c r="AK5" t="n">
-        <v>0.339</v>
+        <v>0.337</v>
       </c>
       <c r="AL5" t="n">
-        <v>0.37</v>
+        <v>0.373</v>
       </c>
       <c r="AM5" t="n">
         <v>0.118</v>
@@ -1298,10 +1298,10 @@
         <v>0.344</v>
       </c>
       <c r="AO5" t="n">
-        <v>0.407</v>
+        <v>0.408</v>
       </c>
       <c r="AP5" t="n">
-        <v>0.083</v>
+        <v>0.082</v>
       </c>
       <c r="AQ5" t="n">
         <v>0.287</v>
@@ -1310,49 +1310,49 @@
         <v>0.437</v>
       </c>
       <c r="AS5" t="n">
-        <v>0.109</v>
+        <v>0.108</v>
       </c>
       <c r="AT5" t="n">
-        <v>0.331</v>
+        <v>0.329</v>
       </c>
       <c r="AU5" t="n">
-        <v>0.444</v>
+        <v>0.447</v>
       </c>
       <c r="AV5" t="n">
-        <v>0.111</v>
+        <v>0.11</v>
       </c>
       <c r="AW5" t="n">
-        <v>0.333</v>
+        <v>0.332</v>
       </c>
       <c r="AX5" t="n">
-        <v>1.372</v>
+        <v>1.373</v>
       </c>
       <c r="AY5" t="n">
-        <v>0.07199999999999999</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="AZ5" t="n">
-        <v>0.268</v>
+        <v>0.266</v>
       </c>
       <c r="BA5" t="n">
         <v>1.402</v>
       </c>
       <c r="BB5" t="n">
-        <v>0.079</v>
+        <v>0.078</v>
       </c>
       <c r="BC5" t="n">
-        <v>0.281</v>
+        <v>0.279</v>
       </c>
       <c r="BD5" t="n">
         <v>0.4</v>
       </c>
       <c r="BE5" t="n">
-        <v>0.043</v>
+        <v>0.042</v>
       </c>
       <c r="BF5" t="n">
-        <v>0.207</v>
+        <v>0.205</v>
       </c>
       <c r="BG5" t="n">
-        <v>0.414</v>
+        <v>0.413</v>
       </c>
       <c r="BH5" t="n">
         <v>0.049</v>
@@ -1361,16 +1361,16 @@
         <v>0.222</v>
       </c>
       <c r="BJ5" t="n">
-        <v>0.5590000000000001</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="BK5" t="n">
-        <v>0.058</v>
+        <v>0.059</v>
       </c>
       <c r="BL5" t="n">
-        <v>0.241</v>
+        <v>0.242</v>
       </c>
       <c r="BM5" t="n">
-        <v>0.575</v>
+        <v>0.576</v>
       </c>
       <c r="BN5" t="n">
         <v>0.067</v>
@@ -1382,7 +1382,7 @@
         <v>0.467</v>
       </c>
       <c r="BQ5" t="n">
-        <v>0.457</v>
+        <v>0.458</v>
       </c>
     </row>
     <row r="6">
@@ -1392,27 +1392,27 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.446</v>
+        <v>0.447</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="n">
-        <v>0.508</v>
+        <v>0.507</v>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="n">
-        <v>0.464</v>
+        <v>0.466</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="n">
-        <v>0.485</v>
+        <v>0.487</v>
       </c>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="n">
-        <v>0.553</v>
+        <v>0.556</v>
       </c>
       <c r="O6" t="inlineStr"/>
       <c r="P6" t="inlineStr"/>
@@ -1422,42 +1422,42 @@
       <c r="R6" t="inlineStr"/>
       <c r="S6" t="inlineStr"/>
       <c r="T6" t="n">
-        <v>0.331</v>
+        <v>0.33</v>
       </c>
       <c r="U6" t="inlineStr"/>
       <c r="V6" t="inlineStr"/>
       <c r="W6" t="n">
-        <v>0.299</v>
+        <v>0.297</v>
       </c>
       <c r="X6" t="inlineStr"/>
       <c r="Y6" t="inlineStr"/>
       <c r="Z6" t="n">
-        <v>0.432</v>
+        <v>0.429</v>
       </c>
       <c r="AA6" t="inlineStr"/>
       <c r="AB6" t="inlineStr"/>
       <c r="AC6" t="n">
-        <v>0.314</v>
+        <v>0.313</v>
       </c>
       <c r="AD6" t="inlineStr"/>
       <c r="AE6" t="inlineStr"/>
       <c r="AF6" t="n">
-        <v>0.259</v>
+        <v>0.258</v>
       </c>
       <c r="AG6" t="inlineStr"/>
       <c r="AH6" t="inlineStr"/>
       <c r="AI6" t="n">
-        <v>0.336</v>
+        <v>0.334</v>
       </c>
       <c r="AJ6" t="inlineStr"/>
       <c r="AK6" t="inlineStr"/>
       <c r="AL6" t="n">
-        <v>0.321</v>
+        <v>0.322</v>
       </c>
       <c r="AM6" t="inlineStr"/>
       <c r="AN6" t="inlineStr"/>
       <c r="AO6" t="n">
-        <v>0.451</v>
+        <v>0.453</v>
       </c>
       <c r="AP6" t="inlineStr"/>
       <c r="AQ6" t="inlineStr"/>
@@ -1467,12 +1467,12 @@
       <c r="AS6" t="inlineStr"/>
       <c r="AT6" t="inlineStr"/>
       <c r="AU6" t="n">
-        <v>0.291</v>
+        <v>0.293</v>
       </c>
       <c r="AV6" t="inlineStr"/>
       <c r="AW6" t="inlineStr"/>
       <c r="AX6" t="n">
-        <v>1.656</v>
+        <v>1.66</v>
       </c>
       <c r="AY6" t="inlineStr"/>
       <c r="AZ6" t="inlineStr"/>
@@ -1482,22 +1482,22 @@
       <c r="BB6" t="inlineStr"/>
       <c r="BC6" t="inlineStr"/>
       <c r="BD6" t="n">
-        <v>0.529</v>
+        <v>0.53</v>
       </c>
       <c r="BE6" t="inlineStr"/>
       <c r="BF6" t="inlineStr"/>
       <c r="BG6" t="n">
-        <v>0.541</v>
+        <v>0.54</v>
       </c>
       <c r="BH6" t="inlineStr"/>
       <c r="BI6" t="inlineStr"/>
       <c r="BJ6" t="n">
-        <v>0.64</v>
+        <v>0.642</v>
       </c>
       <c r="BK6" t="inlineStr"/>
       <c r="BL6" t="inlineStr"/>
       <c r="BM6" t="n">
-        <v>0.638</v>
+        <v>0.639</v>
       </c>
       <c r="BN6" t="inlineStr"/>
       <c r="BO6" t="inlineStr"/>
@@ -1505,7 +1505,7 @@
         <v>0.554</v>
       </c>
       <c r="BQ6" t="n">
-        <v>0.552</v>
+        <v>0.553</v>
       </c>
     </row>
     <row r="7">
@@ -1515,7 +1515,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.477</v>
+        <v>0.478</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
@@ -1525,17 +1525,17 @@
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="n">
-        <v>0.535</v>
+        <v>0.537</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="n">
-        <v>0.5620000000000001</v>
+        <v>0.5639999999999999</v>
       </c>
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="n">
-        <v>0.652</v>
+        <v>0.654</v>
       </c>
       <c r="O7" t="inlineStr"/>
       <c r="P7" t="inlineStr"/>
@@ -1550,37 +1550,37 @@
       <c r="U7" t="inlineStr"/>
       <c r="V7" t="inlineStr"/>
       <c r="W7" t="n">
-        <v>0.297</v>
+        <v>0.295</v>
       </c>
       <c r="X7" t="inlineStr"/>
       <c r="Y7" t="inlineStr"/>
       <c r="Z7" t="n">
-        <v>0.477</v>
+        <v>0.473</v>
       </c>
       <c r="AA7" t="inlineStr"/>
       <c r="AB7" t="inlineStr"/>
       <c r="AC7" t="n">
-        <v>0.261</v>
+        <v>0.26</v>
       </c>
       <c r="AD7" t="inlineStr"/>
       <c r="AE7" t="inlineStr"/>
       <c r="AF7" t="n">
-        <v>0.26</v>
+        <v>0.259</v>
       </c>
       <c r="AG7" t="inlineStr"/>
       <c r="AH7" t="inlineStr"/>
       <c r="AI7" t="n">
-        <v>0.348</v>
+        <v>0.346</v>
       </c>
       <c r="AJ7" t="inlineStr"/>
       <c r="AK7" t="inlineStr"/>
       <c r="AL7" t="n">
-        <v>0.349</v>
+        <v>0.351</v>
       </c>
       <c r="AM7" t="inlineStr"/>
       <c r="AN7" t="inlineStr"/>
       <c r="AO7" t="n">
-        <v>0.424</v>
+        <v>0.425</v>
       </c>
       <c r="AP7" t="inlineStr"/>
       <c r="AQ7" t="inlineStr"/>
@@ -1590,17 +1590,17 @@
       <c r="AS7" t="inlineStr"/>
       <c r="AT7" t="inlineStr"/>
       <c r="AU7" t="n">
-        <v>0.367</v>
+        <v>0.369</v>
       </c>
       <c r="AV7" t="inlineStr"/>
       <c r="AW7" t="inlineStr"/>
       <c r="AX7" t="n">
-        <v>1.472</v>
+        <v>1.473</v>
       </c>
       <c r="AY7" t="inlineStr"/>
       <c r="AZ7" t="inlineStr"/>
       <c r="BA7" t="n">
-        <v>1.494</v>
+        <v>1.495</v>
       </c>
       <c r="BB7" t="inlineStr"/>
       <c r="BC7" t="inlineStr"/>
@@ -1610,17 +1610,17 @@
       <c r="BE7" t="inlineStr"/>
       <c r="BF7" t="inlineStr"/>
       <c r="BG7" t="n">
-        <v>0.457</v>
+        <v>0.456</v>
       </c>
       <c r="BH7" t="inlineStr"/>
       <c r="BI7" t="inlineStr"/>
       <c r="BJ7" t="n">
-        <v>0.589</v>
+        <v>0.59</v>
       </c>
       <c r="BK7" t="inlineStr"/>
       <c r="BL7" t="inlineStr"/>
       <c r="BM7" t="n">
-        <v>0.599</v>
+        <v>0.6</v>
       </c>
       <c r="BN7" t="inlineStr"/>
       <c r="BO7" t="inlineStr"/>
@@ -1638,13 +1638,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.543</v>
+        <v>0.544</v>
       </c>
       <c r="C8" t="n">
-        <v>0.117</v>
+        <v>0.115</v>
       </c>
       <c r="D8" t="n">
-        <v>0.342</v>
+        <v>0.34</v>
       </c>
       <c r="E8" t="n">
         <v>0.636</v>
@@ -1656,31 +1656,31 @@
         <v>0.323</v>
       </c>
       <c r="H8" t="n">
-        <v>0.621</v>
+        <v>0.624</v>
       </c>
       <c r="I8" t="n">
-        <v>0.128</v>
+        <v>0.127</v>
       </c>
       <c r="J8" t="n">
-        <v>0.358</v>
+        <v>0.356</v>
       </c>
       <c r="K8" t="n">
-        <v>0.675</v>
+        <v>0.678</v>
       </c>
       <c r="L8" t="n">
-        <v>0.112</v>
+        <v>0.11</v>
       </c>
       <c r="M8" t="n">
-        <v>0.334</v>
+        <v>0.332</v>
       </c>
       <c r="N8" t="n">
-        <v>0.78</v>
+        <v>0.782</v>
       </c>
       <c r="O8" t="n">
         <v>0.057</v>
       </c>
       <c r="P8" t="n">
-        <v>0.24</v>
+        <v>0.238</v>
       </c>
       <c r="Q8" t="n">
         <v>0.025</v>
@@ -1689,19 +1689,19 @@
         <v>0.019</v>
       </c>
       <c r="S8" t="n">
-        <v>0.138</v>
+        <v>0.137</v>
       </c>
       <c r="T8" t="n">
         <v>0.367</v>
       </c>
       <c r="U8" t="n">
-        <v>0.133</v>
+        <v>0.134</v>
       </c>
       <c r="V8" t="n">
-        <v>0.365</v>
+        <v>0.366</v>
       </c>
       <c r="W8" t="n">
-        <v>0.333</v>
+        <v>0.332</v>
       </c>
       <c r="X8" t="n">
         <v>0.138</v>
@@ -1710,19 +1710,19 @@
         <v>0.372</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.523</v>
+        <v>0.52</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.125</v>
+        <v>0.126</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.353</v>
+        <v>0.354</v>
       </c>
       <c r="AC8" t="n">
         <v>0.33</v>
       </c>
       <c r="AD8" t="n">
-        <v>0.131</v>
+        <v>0.13</v>
       </c>
       <c r="AE8" t="n">
         <v>0.361</v>
@@ -1737,16 +1737,16 @@
         <v>0.341</v>
       </c>
       <c r="AI8" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>0.136</v>
+      </c>
+      <c r="AK8" t="n">
         <v>0.368</v>
       </c>
-      <c r="AJ8" t="n">
-        <v>0.137</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>0.37</v>
-      </c>
       <c r="AL8" t="n">
-        <v>0.386</v>
+        <v>0.388</v>
       </c>
       <c r="AM8" t="n">
         <v>0.138</v>
@@ -1755,13 +1755,13 @@
         <v>0.372</v>
       </c>
       <c r="AO8" t="n">
-        <v>0.487</v>
+        <v>0.49</v>
       </c>
       <c r="AP8" t="n">
-        <v>0.123</v>
+        <v>0.124</v>
       </c>
       <c r="AQ8" t="n">
-        <v>0.351</v>
+        <v>0.352</v>
       </c>
       <c r="AR8" t="n">
         <v>0.371</v>
@@ -1773,7 +1773,7 @@
         <v>0.325</v>
       </c>
       <c r="AU8" t="n">
-        <v>0.401</v>
+        <v>0.404</v>
       </c>
       <c r="AV8" t="n">
         <v>0.114</v>
@@ -1782,25 +1782,25 @@
         <v>0.338</v>
       </c>
       <c r="AX8" t="n">
-        <v>1.84</v>
+        <v>1.842</v>
       </c>
       <c r="AY8" t="n">
-        <v>0.117</v>
+        <v>0.116</v>
       </c>
       <c r="AZ8" t="n">
-        <v>0.342</v>
+        <v>0.34</v>
       </c>
       <c r="BA8" t="n">
-        <v>1.838</v>
+        <v>1.837</v>
       </c>
       <c r="BB8" t="n">
-        <v>0.124</v>
+        <v>0.123</v>
       </c>
       <c r="BC8" t="n">
-        <v>0.353</v>
+        <v>0.351</v>
       </c>
       <c r="BD8" t="n">
-        <v>0.581</v>
+        <v>0.579</v>
       </c>
       <c r="BE8" t="n">
         <v>0.096</v>
@@ -1809,37 +1809,37 @@
         <v>0.31</v>
       </c>
       <c r="BG8" t="n">
-        <v>0.584</v>
+        <v>0.581</v>
       </c>
       <c r="BH8" t="n">
         <v>0.099</v>
       </c>
       <c r="BI8" t="n">
-        <v>0.314</v>
+        <v>0.315</v>
       </c>
       <c r="BJ8" t="n">
-        <v>0.733</v>
+        <v>0.734</v>
       </c>
       <c r="BK8" t="n">
         <v>0.052</v>
       </c>
       <c r="BL8" t="n">
-        <v>0.228</v>
+        <v>0.227</v>
       </c>
       <c r="BM8" t="n">
-        <v>0.735</v>
+        <v>0.734</v>
       </c>
       <c r="BN8" t="n">
-        <v>0.06</v>
+        <v>0.059</v>
       </c>
       <c r="BO8" t="n">
-        <v>0.244</v>
+        <v>0.243</v>
       </c>
       <c r="BP8" t="n">
-        <v>0.613</v>
+        <v>0.612</v>
       </c>
       <c r="BQ8" t="n">
-        <v>0.613</v>
+        <v>0.614</v>
       </c>
     </row>
     <row r="9">
@@ -1849,16 +1849,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.443</v>
+        <v>0.441</v>
       </c>
       <c r="C9" t="n">
-        <v>0.247</v>
+        <v>0.246</v>
       </c>
       <c r="D9" t="n">
-        <v>0.497</v>
+        <v>0.496</v>
       </c>
       <c r="E9" t="n">
-        <v>0.543</v>
+        <v>0.539</v>
       </c>
       <c r="F9" t="n">
         <v>0.248</v>
@@ -1876,22 +1876,22 @@
         <v>0.499</v>
       </c>
       <c r="K9" t="n">
-        <v>0.61</v>
+        <v>0.612</v>
       </c>
       <c r="L9" t="n">
         <v>0.238</v>
       </c>
       <c r="M9" t="n">
-        <v>0.488</v>
+        <v>0.487</v>
       </c>
       <c r="N9" t="n">
-        <v>0.6870000000000001</v>
+        <v>0.6889999999999999</v>
       </c>
       <c r="O9" t="n">
-        <v>0.215</v>
+        <v>0.214</v>
       </c>
       <c r="P9" t="n">
-        <v>0.464</v>
+        <v>0.463</v>
       </c>
       <c r="Q9" t="n">
         <v>0.024</v>
@@ -1900,7 +1900,7 @@
         <v>0.023</v>
       </c>
       <c r="S9" t="n">
-        <v>0.153</v>
+        <v>0.152</v>
       </c>
       <c r="T9" t="n">
         <v>0.307</v>
@@ -1912,7 +1912,7 @@
         <v>0.461</v>
       </c>
       <c r="W9" t="n">
-        <v>0.273</v>
+        <v>0.271</v>
       </c>
       <c r="X9" t="n">
         <v>0.198</v>
@@ -1921,52 +1921,52 @@
         <v>0.445</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.394</v>
+        <v>0.392</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.239</v>
+        <v>0.238</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.489</v>
+        <v>0.488</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.345</v>
+        <v>0.347</v>
       </c>
       <c r="AD9" t="n">
         <v>0.226</v>
       </c>
       <c r="AE9" t="n">
-        <v>0.475</v>
+        <v>0.476</v>
       </c>
       <c r="AF9" t="n">
-        <v>0.212</v>
+        <v>0.211</v>
       </c>
       <c r="AG9" t="n">
-        <v>0.167</v>
+        <v>0.166</v>
       </c>
       <c r="AH9" t="n">
-        <v>0.409</v>
+        <v>0.408</v>
       </c>
       <c r="AI9" t="n">
+        <v>0.282</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>0.202</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="AL9" t="n">
         <v>0.286</v>
       </c>
-      <c r="AJ9" t="n">
+      <c r="AM9" t="n">
         <v>0.204</v>
       </c>
-      <c r="AK9" t="n">
+      <c r="AN9" t="n">
         <v>0.452</v>
       </c>
-      <c r="AL9" t="n">
-        <v>0.284</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>0.203</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>0.451</v>
-      </c>
       <c r="AO9" t="n">
-        <v>0.434</v>
+        <v>0.438</v>
       </c>
       <c r="AP9" t="n">
         <v>0.246</v>
@@ -1975,25 +1975,25 @@
         <v>0.496</v>
       </c>
       <c r="AR9" t="n">
-        <v>0.21</v>
+        <v>0.211</v>
       </c>
       <c r="AS9" t="n">
         <v>0.166</v>
       </c>
       <c r="AT9" t="n">
-        <v>0.407</v>
+        <v>0.408</v>
       </c>
       <c r="AU9" t="n">
-        <v>0.251</v>
+        <v>0.253</v>
       </c>
       <c r="AV9" t="n">
-        <v>0.188</v>
+        <v>0.189</v>
       </c>
       <c r="AW9" t="n">
-        <v>0.434</v>
+        <v>0.435</v>
       </c>
       <c r="AX9" t="n">
-        <v>1.85</v>
+        <v>1.846</v>
       </c>
       <c r="AY9" t="n">
         <v>0.25</v>
@@ -2002,7 +2002,7 @@
         <v>0.5</v>
       </c>
       <c r="BA9" t="n">
-        <v>1.842</v>
+        <v>1.834</v>
       </c>
       <c r="BB9" t="n">
         <v>0.25</v>
@@ -2011,46 +2011,46 @@
         <v>0.5</v>
       </c>
       <c r="BD9" t="n">
-        <v>0.617</v>
+        <v>0.614</v>
       </c>
       <c r="BE9" t="n">
-        <v>0.236</v>
+        <v>0.237</v>
       </c>
       <c r="BF9" t="n">
-        <v>0.486</v>
+        <v>0.487</v>
       </c>
       <c r="BG9" t="n">
-        <v>0.618</v>
+        <v>0.613</v>
       </c>
       <c r="BH9" t="n">
-        <v>0.236</v>
+        <v>0.237</v>
       </c>
       <c r="BI9" t="n">
-        <v>0.486</v>
+        <v>0.487</v>
       </c>
       <c r="BJ9" t="n">
-        <v>0.733</v>
+        <v>0.729</v>
       </c>
       <c r="BK9" t="n">
-        <v>0.196</v>
+        <v>0.198</v>
       </c>
       <c r="BL9" t="n">
-        <v>0.442</v>
+        <v>0.445</v>
       </c>
       <c r="BM9" t="n">
-        <v>0.727</v>
+        <v>0.721</v>
       </c>
       <c r="BN9" t="n">
-        <v>0.198</v>
+        <v>0.201</v>
       </c>
       <c r="BO9" t="n">
-        <v>0.445</v>
+        <v>0.448</v>
       </c>
       <c r="BP9" t="n">
-        <v>0.614</v>
+        <v>0.611</v>
       </c>
       <c r="BQ9" t="n">
-        <v>0.617</v>
+        <v>0.615</v>
       </c>
     </row>
     <row r="10">
@@ -2060,58 +2060,58 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.633</v>
+        <v>0.637</v>
       </c>
       <c r="C10" t="n">
-        <v>0.232</v>
+        <v>0.231</v>
       </c>
       <c r="D10" t="n">
-        <v>0.482</v>
+        <v>0.481</v>
       </c>
       <c r="E10" t="n">
+        <v>0.716</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.203</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.451</v>
+      </c>
+      <c r="H10" t="n">
         <v>0.714</v>
       </c>
-      <c r="F10" t="n">
+      <c r="I10" t="n">
         <v>0.204</v>
       </c>
-      <c r="G10" t="n">
+      <c r="J10" t="n">
         <v>0.452</v>
       </c>
-      <c r="H10" t="n">
-        <v>0.712</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0.205</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0.453</v>
-      </c>
       <c r="K10" t="n">
-        <v>0.771</v>
+        <v>0.775</v>
       </c>
       <c r="L10" t="n">
-        <v>0.176</v>
+        <v>0.175</v>
       </c>
       <c r="M10" t="n">
-        <v>0.42</v>
+        <v>0.418</v>
       </c>
       <c r="N10" t="n">
-        <v>0.888</v>
+        <v>0.889</v>
       </c>
       <c r="O10" t="n">
-        <v>0.1</v>
+        <v>0.098</v>
       </c>
       <c r="P10" t="n">
-        <v>0.316</v>
+        <v>0.314</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.027</v>
+        <v>0.026</v>
       </c>
       <c r="R10" t="n">
         <v>0.026</v>
       </c>
       <c r="S10" t="n">
-        <v>0.161</v>
+        <v>0.16</v>
       </c>
       <c r="T10" t="n">
         <v>0.451</v>
@@ -2123,34 +2123,34 @@
         <v>0.498</v>
       </c>
       <c r="W10" t="n">
-        <v>0.409</v>
+        <v>0.408</v>
       </c>
       <c r="X10" t="n">
         <v>0.242</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.492</v>
+        <v>0.491</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.61</v>
+        <v>0.605</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.238</v>
+        <v>0.239</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.488</v>
+        <v>0.489</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.383</v>
+        <v>0.384</v>
       </c>
       <c r="AD10" t="n">
-        <v>0.236</v>
+        <v>0.237</v>
       </c>
       <c r="AE10" t="n">
         <v>0.486</v>
       </c>
       <c r="AF10" t="n">
-        <v>0.316</v>
+        <v>0.315</v>
       </c>
       <c r="AG10" t="n">
         <v>0.216</v>
@@ -2159,13 +2159,13 @@
         <v>0.465</v>
       </c>
       <c r="AI10" t="n">
-        <v>0.396</v>
+        <v>0.392</v>
       </c>
       <c r="AJ10" t="n">
-        <v>0.239</v>
+        <v>0.238</v>
       </c>
       <c r="AK10" t="n">
-        <v>0.489</v>
+        <v>0.488</v>
       </c>
       <c r="AL10" t="n">
         <v>0.447</v>
@@ -2177,25 +2177,25 @@
         <v>0.497</v>
       </c>
       <c r="AO10" t="n">
-        <v>0.572</v>
+        <v>0.576</v>
       </c>
       <c r="AP10" t="n">
-        <v>0.245</v>
+        <v>0.244</v>
       </c>
       <c r="AQ10" t="n">
-        <v>0.495</v>
+        <v>0.494</v>
       </c>
       <c r="AR10" t="n">
-        <v>0.383</v>
+        <v>0.384</v>
       </c>
       <c r="AS10" t="n">
-        <v>0.236</v>
+        <v>0.237</v>
       </c>
       <c r="AT10" t="n">
         <v>0.486</v>
       </c>
       <c r="AU10" t="n">
-        <v>0.409</v>
+        <v>0.413</v>
       </c>
       <c r="AV10" t="n">
         <v>0.242</v>
@@ -2204,64 +2204,64 @@
         <v>0.492</v>
       </c>
       <c r="AX10" t="n">
-        <v>2.204</v>
+        <v>2.208</v>
       </c>
       <c r="AY10" t="n">
-        <v>0.234</v>
+        <v>0.233</v>
       </c>
       <c r="AZ10" t="n">
-        <v>0.484</v>
+        <v>0.483</v>
       </c>
       <c r="BA10" t="n">
-        <v>2.173</v>
+        <v>2.178</v>
       </c>
       <c r="BB10" t="n">
-        <v>0.237</v>
+        <v>0.236</v>
       </c>
       <c r="BC10" t="n">
-        <v>0.487</v>
+        <v>0.486</v>
       </c>
       <c r="BD10" t="n">
-        <v>0.6889999999999999</v>
+        <v>0.6870000000000001</v>
       </c>
       <c r="BE10" t="n">
-        <v>0.214</v>
+        <v>0.215</v>
       </c>
       <c r="BF10" t="n">
-        <v>0.463</v>
+        <v>0.464</v>
       </c>
       <c r="BG10" t="n">
-        <v>0.679</v>
+        <v>0.676</v>
       </c>
       <c r="BH10" t="n">
-        <v>0.218</v>
+        <v>0.219</v>
       </c>
       <c r="BI10" t="n">
-        <v>0.467</v>
+        <v>0.468</v>
       </c>
       <c r="BJ10" t="n">
-        <v>0.89</v>
+        <v>0.891</v>
       </c>
       <c r="BK10" t="n">
-        <v>0.098</v>
+        <v>0.097</v>
       </c>
       <c r="BL10" t="n">
-        <v>0.313</v>
+        <v>0.311</v>
       </c>
       <c r="BM10" t="n">
-        <v>0.882</v>
+        <v>0.884</v>
       </c>
       <c r="BN10" t="n">
-        <v>0.104</v>
+        <v>0.102</v>
       </c>
       <c r="BO10" t="n">
-        <v>0.322</v>
+        <v>0.32</v>
       </c>
       <c r="BP10" t="n">
-        <v>0.724</v>
+        <v>0.726</v>
       </c>
       <c r="BQ10" t="n">
-        <v>0.735</v>
+        <v>0.736</v>
       </c>
     </row>
     <row r="11">
@@ -2271,58 +2271,58 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.68</v>
+        <v>0.6850000000000001</v>
       </c>
       <c r="C11" t="n">
-        <v>0.218</v>
+        <v>0.216</v>
       </c>
       <c r="D11" t="n">
-        <v>0.466</v>
+        <v>0.465</v>
       </c>
       <c r="E11" t="n">
-        <v>0.765</v>
+        <v>0.766</v>
       </c>
       <c r="F11" t="n">
-        <v>0.18</v>
+        <v>0.179</v>
       </c>
       <c r="G11" t="n">
         <v>0.424</v>
       </c>
       <c r="H11" t="n">
-        <v>0.756</v>
+        <v>0.76</v>
       </c>
       <c r="I11" t="n">
-        <v>0.184</v>
+        <v>0.182</v>
       </c>
       <c r="J11" t="n">
-        <v>0.429</v>
+        <v>0.427</v>
       </c>
       <c r="K11" t="n">
-        <v>0.803</v>
+        <v>0.806</v>
       </c>
       <c r="L11" t="n">
-        <v>0.158</v>
+        <v>0.156</v>
       </c>
       <c r="M11" t="n">
-        <v>0.398</v>
+        <v>0.396</v>
       </c>
       <c r="N11" t="n">
-        <v>0.917</v>
+        <v>0.918</v>
       </c>
       <c r="O11" t="n">
-        <v>0.076</v>
+        <v>0.075</v>
       </c>
       <c r="P11" t="n">
-        <v>0.276</v>
+        <v>0.274</v>
       </c>
       <c r="Q11" t="n">
         <v>0.029</v>
       </c>
       <c r="R11" t="n">
-        <v>0.029</v>
+        <v>0.028</v>
       </c>
       <c r="S11" t="n">
-        <v>0.169</v>
+        <v>0.168</v>
       </c>
       <c r="T11" t="n">
         <v>0.453</v>
@@ -2334,52 +2334,52 @@
         <v>0.498</v>
       </c>
       <c r="W11" t="n">
-        <v>0.409</v>
+        <v>0.408</v>
       </c>
       <c r="X11" t="n">
         <v>0.242</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.492</v>
+        <v>0.491</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.655</v>
+        <v>0.649</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.226</v>
+        <v>0.228</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.475</v>
+        <v>0.477</v>
       </c>
       <c r="AC11" t="n">
         <v>0.388</v>
       </c>
       <c r="AD11" t="n">
-        <v>0.237</v>
+        <v>0.238</v>
       </c>
       <c r="AE11" t="n">
         <v>0.487</v>
       </c>
       <c r="AF11" t="n">
-        <v>0.337</v>
+        <v>0.336</v>
       </c>
       <c r="AG11" t="n">
         <v>0.223</v>
       </c>
       <c r="AH11" t="n">
-        <v>0.473</v>
+        <v>0.472</v>
       </c>
       <c r="AI11" t="n">
-        <v>0.422</v>
+        <v>0.418</v>
       </c>
       <c r="AJ11" t="n">
-        <v>0.244</v>
+        <v>0.243</v>
       </c>
       <c r="AK11" t="n">
-        <v>0.494</v>
+        <v>0.493</v>
       </c>
       <c r="AL11" t="n">
-        <v>0.472</v>
+        <v>0.474</v>
       </c>
       <c r="AM11" t="n">
         <v>0.249</v>
@@ -2388,16 +2388,16 @@
         <v>0.499</v>
       </c>
       <c r="AO11" t="n">
-        <v>0.597</v>
+        <v>0.601</v>
       </c>
       <c r="AP11" t="n">
-        <v>0.241</v>
+        <v>0.24</v>
       </c>
       <c r="AQ11" t="n">
         <v>0.49</v>
       </c>
       <c r="AR11" t="n">
-        <v>0.475</v>
+        <v>0.476</v>
       </c>
       <c r="AS11" t="n">
         <v>0.249</v>
@@ -2406,7 +2406,7 @@
         <v>0.499</v>
       </c>
       <c r="AU11" t="n">
-        <v>0.505</v>
+        <v>0.511</v>
       </c>
       <c r="AV11" t="n">
         <v>0.25</v>
@@ -2415,64 +2415,64 @@
         <v>0.5</v>
       </c>
       <c r="AX11" t="n">
-        <v>2.219</v>
+        <v>2.224</v>
       </c>
       <c r="AY11" t="n">
-        <v>0.232</v>
+        <v>0.23</v>
       </c>
       <c r="AZ11" t="n">
-        <v>0.481</v>
+        <v>0.48</v>
       </c>
       <c r="BA11" t="n">
-        <v>2.185</v>
+        <v>2.19</v>
       </c>
       <c r="BB11" t="n">
-        <v>0.236</v>
+        <v>0.235</v>
       </c>
       <c r="BC11" t="n">
-        <v>0.486</v>
+        <v>0.484</v>
       </c>
       <c r="BD11" t="n">
-        <v>0.6909999999999999</v>
+        <v>0.6889999999999999</v>
       </c>
       <c r="BE11" t="n">
         <v>0.214</v>
       </c>
       <c r="BF11" t="n">
-        <v>0.462</v>
+        <v>0.463</v>
       </c>
       <c r="BG11" t="n">
-        <v>0.6820000000000001</v>
+        <v>0.679</v>
       </c>
       <c r="BH11" t="n">
-        <v>0.217</v>
+        <v>0.218</v>
       </c>
       <c r="BI11" t="n">
-        <v>0.466</v>
+        <v>0.467</v>
       </c>
       <c r="BJ11" t="n">
-        <v>0.892</v>
+        <v>0.894</v>
       </c>
       <c r="BK11" t="n">
-        <v>0.096</v>
+        <v>0.095</v>
       </c>
       <c r="BL11" t="n">
-        <v>0.31</v>
+        <v>0.308</v>
       </c>
       <c r="BM11" t="n">
-        <v>0.885</v>
+        <v>0.887</v>
       </c>
       <c r="BN11" t="n">
-        <v>0.102</v>
+        <v>0.1</v>
       </c>
       <c r="BO11" t="n">
-        <v>0.319</v>
+        <v>0.317</v>
       </c>
       <c r="BP11" t="n">
-        <v>0.728</v>
+        <v>0.73</v>
       </c>
       <c r="BQ11" t="n">
-        <v>0.74</v>
+        <v>0.741</v>
       </c>
     </row>
     <row r="12">
@@ -2482,49 +2482,49 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.579</v>
+        <v>1.601</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9419999999999999</v>
+        <v>0.978</v>
       </c>
       <c r="D12" t="n">
-        <v>0.97</v>
+        <v>0.989</v>
       </c>
       <c r="E12" t="n">
-        <v>1.521</v>
+        <v>1.522</v>
       </c>
       <c r="F12" t="n">
-        <v>0.97</v>
+        <v>0.957</v>
       </c>
       <c r="G12" t="n">
-        <v>0.985</v>
+        <v>0.978</v>
       </c>
       <c r="H12" t="n">
-        <v>1.496</v>
+        <v>1.5</v>
       </c>
       <c r="I12" t="n">
-        <v>0.866</v>
+        <v>0.871</v>
       </c>
       <c r="J12" t="n">
-        <v>0.931</v>
+        <v>0.9330000000000001</v>
       </c>
       <c r="K12" t="n">
-        <v>1.385</v>
+        <v>1.383</v>
       </c>
       <c r="L12" t="n">
-        <v>0.648</v>
+        <v>0.641</v>
       </c>
       <c r="M12" t="n">
-        <v>0.805</v>
+        <v>0.8</v>
       </c>
       <c r="N12" t="n">
-        <v>1.441</v>
+        <v>1.436</v>
       </c>
       <c r="O12" t="n">
-        <v>0.857</v>
+        <v>0.847</v>
       </c>
       <c r="P12" t="n">
-        <v>0.926</v>
+        <v>0.92</v>
       </c>
       <c r="Q12" t="n">
         <v>1.364</v>
@@ -2536,154 +2536,154 @@
         <v>0.881</v>
       </c>
       <c r="T12" t="n">
-        <v>1.416</v>
+        <v>1.415</v>
       </c>
       <c r="U12" t="n">
+        <v>0.436</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0.661</v>
+      </c>
+      <c r="W12" t="n">
+        <v>1.432</v>
+      </c>
+      <c r="X12" t="n">
         <v>0.439</v>
       </c>
-      <c r="V12" t="n">
+      <c r="Y12" t="n">
         <v>0.663</v>
       </c>
-      <c r="W12" t="n">
-        <v>1.425</v>
-      </c>
-      <c r="X12" t="n">
-        <v>0.427</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>0.654</v>
-      </c>
       <c r="Z12" t="n">
-        <v>1.67</v>
+        <v>1.666</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.9360000000000001</v>
       </c>
       <c r="AB12" t="n">
-        <v>0.969</v>
+        <v>0.968</v>
       </c>
       <c r="AC12" t="n">
-        <v>1.137</v>
+        <v>1.134</v>
       </c>
       <c r="AD12" t="n">
-        <v>0.194</v>
+        <v>0.192</v>
       </c>
       <c r="AE12" t="n">
-        <v>0.441</v>
+        <v>0.438</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.616</v>
+        <v>1.615</v>
       </c>
       <c r="AG12" t="n">
-        <v>0.928</v>
+        <v>0.92</v>
       </c>
       <c r="AH12" t="n">
-        <v>0.963</v>
+        <v>0.959</v>
       </c>
       <c r="AI12" t="n">
-        <v>1.635</v>
+        <v>1.637</v>
       </c>
       <c r="AJ12" t="n">
-        <v>1.125</v>
+        <v>1.119</v>
       </c>
       <c r="AK12" t="n">
-        <v>1.061</v>
+        <v>1.058</v>
       </c>
       <c r="AL12" t="n">
         <v>1.724</v>
       </c>
       <c r="AM12" t="n">
-        <v>1.454</v>
+        <v>1.458</v>
       </c>
       <c r="AN12" t="n">
-        <v>1.206</v>
+        <v>1.208</v>
       </c>
       <c r="AO12" t="n">
-        <v>1.502</v>
+        <v>1.495</v>
       </c>
       <c r="AP12" t="n">
-        <v>1.029</v>
+        <v>1.013</v>
       </c>
       <c r="AQ12" t="n">
-        <v>1.014</v>
+        <v>1.006</v>
       </c>
       <c r="AR12" t="n">
-        <v>2.595</v>
+        <v>2.594</v>
       </c>
       <c r="AS12" t="n">
-        <v>3.261</v>
+        <v>3.253</v>
       </c>
       <c r="AT12" t="n">
-        <v>1.806</v>
+        <v>1.804</v>
       </c>
       <c r="AU12" t="n">
         <v>2.185</v>
       </c>
       <c r="AV12" t="n">
-        <v>2.243</v>
+        <v>2.221</v>
       </c>
       <c r="AW12" t="n">
-        <v>1.498</v>
+        <v>1.49</v>
       </c>
       <c r="AX12" t="n">
-        <v>3.648</v>
+        <v>3.655</v>
       </c>
       <c r="AY12" t="n">
-        <v>0.39</v>
+        <v>0.385</v>
       </c>
       <c r="AZ12" t="n">
-        <v>0.624</v>
+        <v>0.621</v>
       </c>
       <c r="BA12" t="n">
-        <v>3.604</v>
+        <v>3.616000000000001</v>
       </c>
       <c r="BB12" t="n">
-        <v>0.324</v>
+        <v>0.322</v>
       </c>
       <c r="BC12" t="n">
-        <v>0.57</v>
+        <v>0.5669999999999999</v>
       </c>
       <c r="BD12" t="n">
-        <v>1.138</v>
+        <v>1.139</v>
       </c>
       <c r="BE12" t="n">
-        <v>0.186</v>
+        <v>0.187</v>
       </c>
       <c r="BF12" t="n">
         <v>0.432</v>
       </c>
       <c r="BG12" t="n">
-        <v>1.122</v>
+        <v>1.124</v>
       </c>
       <c r="BH12" t="n">
-        <v>0.17</v>
+        <v>0.171</v>
       </c>
       <c r="BI12" t="n">
-        <v>0.412</v>
+        <v>0.413</v>
       </c>
       <c r="BJ12" t="n">
-        <v>1.227</v>
+        <v>1.233</v>
       </c>
       <c r="BK12" t="n">
-        <v>0.304</v>
+        <v>0.305</v>
       </c>
       <c r="BL12" t="n">
-        <v>0.551</v>
+        <v>0.552</v>
       </c>
       <c r="BM12" t="n">
-        <v>1.235</v>
+        <v>1.243</v>
       </c>
       <c r="BN12" t="n">
-        <v>0.33</v>
+        <v>0.332</v>
       </c>
       <c r="BO12" t="n">
-        <v>0.575</v>
+        <v>0.576</v>
       </c>
       <c r="BP12" t="n">
-        <v>1.201</v>
+        <v>1.205</v>
       </c>
       <c r="BQ12" t="n">
-        <v>1.216</v>
+        <v>1.218</v>
       </c>
     </row>
     <row r="13">
@@ -2693,49 +2693,49 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.457</v>
+        <v>1.456</v>
       </c>
       <c r="C13" t="n">
-        <v>0.353</v>
+        <v>0.352</v>
       </c>
       <c r="D13" t="n">
-        <v>0.594</v>
+        <v>0.593</v>
       </c>
       <c r="E13" t="n">
-        <v>1.586</v>
+        <v>1.583</v>
       </c>
       <c r="F13" t="n">
-        <v>0.467</v>
+        <v>0.464</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6830000000000001</v>
+        <v>0.681</v>
       </c>
       <c r="H13" t="n">
         <v>1.781</v>
       </c>
       <c r="I13" t="n">
-        <v>0.46</v>
+        <v>0.456</v>
       </c>
       <c r="J13" t="n">
-        <v>0.678</v>
+        <v>0.676</v>
       </c>
       <c r="K13" t="n">
         <v>1.784</v>
       </c>
       <c r="L13" t="n">
-        <v>0.451</v>
+        <v>0.448</v>
       </c>
       <c r="M13" t="n">
-        <v>0.672</v>
+        <v>0.669</v>
       </c>
       <c r="N13" t="n">
-        <v>2.083</v>
+        <v>2.081</v>
       </c>
       <c r="O13" t="n">
-        <v>1.062</v>
+        <v>1.054</v>
       </c>
       <c r="P13" t="n">
-        <v>1.03</v>
+        <v>1.027</v>
       </c>
       <c r="Q13" t="n">
         <v>0.539</v>
@@ -2747,154 +2747,154 @@
         <v>0.283</v>
       </c>
       <c r="T13" t="n">
-        <v>0.987</v>
+        <v>0.984</v>
       </c>
       <c r="U13" t="n">
-        <v>0.179</v>
+        <v>0.178</v>
       </c>
       <c r="V13" t="n">
-        <v>0.423</v>
+        <v>0.422</v>
       </c>
       <c r="W13" t="n">
-        <v>1.058</v>
+        <v>1.056</v>
       </c>
       <c r="X13" t="n">
         <v>0.211</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.459</v>
+        <v>0.46</v>
       </c>
       <c r="Z13" t="n">
-        <v>1.518</v>
+        <v>1.514</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.317</v>
+        <v>0.315</v>
       </c>
       <c r="AB13" t="n">
-        <v>0.5629999999999999</v>
+        <v>0.5620000000000001</v>
       </c>
       <c r="AC13" t="n">
-        <v>0.556</v>
+        <v>0.555</v>
       </c>
       <c r="AD13" t="n">
         <v>0.098</v>
       </c>
       <c r="AE13" t="n">
-        <v>0.313</v>
+        <v>0.312</v>
       </c>
       <c r="AF13" t="n">
+        <v>1.142</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>0.332</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>0.577</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>1.293</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>0.828</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="AO13" t="n">
         <v>1.146</v>
       </c>
-      <c r="AG13" t="n">
-        <v>0.328</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>0.573</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>1.292</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>0.323</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>0.569</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>1.529</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>1.151</v>
-      </c>
       <c r="AP13" t="n">
-        <v>0.775</v>
+        <v>0.771</v>
       </c>
       <c r="AQ13" t="n">
-        <v>0.88</v>
+        <v>0.878</v>
       </c>
       <c r="AR13" t="n">
-        <v>2.782</v>
+        <v>2.785</v>
       </c>
       <c r="AS13" t="n">
-        <v>1.36</v>
+        <v>1.348</v>
       </c>
       <c r="AT13" t="n">
-        <v>1.166</v>
+        <v>1.161</v>
       </c>
       <c r="AU13" t="n">
-        <v>2.313</v>
+        <v>2.31</v>
       </c>
       <c r="AV13" t="n">
-        <v>0.773</v>
+        <v>0.77</v>
       </c>
       <c r="AW13" t="n">
-        <v>0.879</v>
+        <v>0.877</v>
       </c>
       <c r="AX13" t="n">
-        <v>2.264</v>
+        <v>2.258</v>
       </c>
       <c r="AY13" t="n">
-        <v>0.25</v>
+        <v>0.248</v>
       </c>
       <c r="AZ13" t="n">
-        <v>0.5</v>
+        <v>0.498</v>
       </c>
       <c r="BA13" t="n">
-        <v>2.387</v>
+        <v>2.38</v>
       </c>
       <c r="BB13" t="n">
-        <v>0.277</v>
+        <v>0.274</v>
       </c>
       <c r="BC13" t="n">
-        <v>0.526</v>
+        <v>0.523</v>
       </c>
       <c r="BD13" t="n">
-        <v>0.5590000000000001</v>
+        <v>0.5580000000000001</v>
       </c>
       <c r="BE13" t="n">
-        <v>0.075</v>
+        <v>0.074</v>
       </c>
       <c r="BF13" t="n">
-        <v>0.274</v>
+        <v>0.273</v>
       </c>
       <c r="BG13" t="n">
-        <v>0.585</v>
+        <v>0.584</v>
       </c>
       <c r="BH13" t="n">
         <v>0.094</v>
       </c>
       <c r="BI13" t="n">
-        <v>0.307</v>
+        <v>0.306</v>
       </c>
       <c r="BJ13" t="n">
-        <v>0.851</v>
+        <v>0.85</v>
       </c>
       <c r="BK13" t="n">
-        <v>0.199</v>
+        <v>0.196</v>
       </c>
       <c r="BL13" t="n">
-        <v>0.446</v>
+        <v>0.443</v>
       </c>
       <c r="BM13" t="n">
-        <v>0.92</v>
+        <v>0.918</v>
       </c>
       <c r="BN13" t="n">
-        <v>0.242</v>
+        <v>0.239</v>
       </c>
       <c r="BO13" t="n">
-        <v>0.492</v>
+        <v>0.489</v>
       </c>
       <c r="BP13" t="n">
-        <v>0.796</v>
+        <v>0.793</v>
       </c>
       <c r="BQ13" t="n">
-        <v>0.755</v>
+        <v>0.753</v>
       </c>
     </row>
   </sheetData>

--- a/stats/avey/disease_type=all failure-type-ignored=any-error for app=WebMD.xlsx
+++ b/stats/avey/disease_type=all failure-type-ignored=any-error for app=WebMD.xlsx
@@ -1114,7 +1114,7 @@
         <v>0.174</v>
       </c>
       <c r="AX4" t="n">
-        <v>2.131</v>
+        <v>0.597</v>
       </c>
       <c r="AY4" t="n">
         <v>0.148</v>
@@ -1123,7 +1123,7 @@
         <v>0.385</v>
       </c>
       <c r="BA4" t="n">
-        <v>2.08</v>
+        <v>0.583</v>
       </c>
       <c r="BB4" t="n">
         <v>0.154</v>
@@ -1325,7 +1325,7 @@
         <v>0.332</v>
       </c>
       <c r="AX5" t="n">
-        <v>1.373</v>
+        <v>0.413</v>
       </c>
       <c r="AY5" t="n">
         <v>0.07099999999999999</v>
@@ -1334,7 +1334,7 @@
         <v>0.266</v>
       </c>
       <c r="BA5" t="n">
-        <v>1.402</v>
+        <v>0.413</v>
       </c>
       <c r="BB5" t="n">
         <v>0.078</v>
@@ -1472,12 +1472,12 @@
       <c r="AV6" t="inlineStr"/>
       <c r="AW6" t="inlineStr"/>
       <c r="AX6" t="n">
-        <v>1.66</v>
+        <v>0.488</v>
       </c>
       <c r="AY6" t="inlineStr"/>
       <c r="AZ6" t="inlineStr"/>
       <c r="BA6" t="n">
-        <v>1.662</v>
+        <v>0.483</v>
       </c>
       <c r="BB6" t="inlineStr"/>
       <c r="BC6" t="inlineStr"/>
@@ -1595,12 +1595,12 @@
       <c r="AV7" t="inlineStr"/>
       <c r="AW7" t="inlineStr"/>
       <c r="AX7" t="n">
-        <v>1.473</v>
+        <v>0.44</v>
       </c>
       <c r="AY7" t="inlineStr"/>
       <c r="AZ7" t="inlineStr"/>
       <c r="BA7" t="n">
-        <v>1.495</v>
+        <v>0.439</v>
       </c>
       <c r="BB7" t="inlineStr"/>
       <c r="BC7" t="inlineStr"/>
@@ -1782,7 +1782,7 @@
         <v>0.338</v>
       </c>
       <c r="AX8" t="n">
-        <v>1.842</v>
+        <v>0.529</v>
       </c>
       <c r="AY8" t="n">
         <v>0.116</v>
@@ -1791,7 +1791,7 @@
         <v>0.34</v>
       </c>
       <c r="BA8" t="n">
-        <v>1.837</v>
+        <v>0.522</v>
       </c>
       <c r="BB8" t="n">
         <v>0.123</v>
@@ -1993,7 +1993,7 @@
         <v>0.435</v>
       </c>
       <c r="AX9" t="n">
-        <v>1.846</v>
+        <v>0.503</v>
       </c>
       <c r="AY9" t="n">
         <v>0.25</v>
@@ -2002,7 +2002,7 @@
         <v>0.5</v>
       </c>
       <c r="BA9" t="n">
-        <v>1.834</v>
+        <v>0.5</v>
       </c>
       <c r="BB9" t="n">
         <v>0.25</v>
@@ -2204,7 +2204,7 @@
         <v>0.492</v>
       </c>
       <c r="AX10" t="n">
-        <v>2.208</v>
+        <v>0.63</v>
       </c>
       <c r="AY10" t="n">
         <v>0.233</v>
@@ -2213,7 +2213,7 @@
         <v>0.483</v>
       </c>
       <c r="BA10" t="n">
-        <v>2.178</v>
+        <v>0.618</v>
       </c>
       <c r="BB10" t="n">
         <v>0.236</v>
@@ -2415,7 +2415,7 @@
         <v>0.5</v>
       </c>
       <c r="AX11" t="n">
-        <v>2.224</v>
+        <v>0.641</v>
       </c>
       <c r="AY11" t="n">
         <v>0.23</v>
@@ -2424,7 +2424,7 @@
         <v>0.48</v>
       </c>
       <c r="BA11" t="n">
-        <v>2.19</v>
+        <v>0.624</v>
       </c>
       <c r="BB11" t="n">
         <v>0.235</v>
@@ -2626,7 +2626,7 @@
         <v>1.49</v>
       </c>
       <c r="AX12" t="n">
-        <v>3.655</v>
+        <v>1.283</v>
       </c>
       <c r="AY12" t="n">
         <v>0.385</v>
@@ -2635,7 +2635,7 @@
         <v>0.621</v>
       </c>
       <c r="BA12" t="n">
-        <v>3.616000000000001</v>
+        <v>1.249</v>
       </c>
       <c r="BB12" t="n">
         <v>0.322</v>
@@ -2837,7 +2837,7 @@
         <v>0.877</v>
       </c>
       <c r="AX13" t="n">
-        <v>2.258</v>
+        <v>0.85</v>
       </c>
       <c r="AY13" t="n">
         <v>0.248</v>
@@ -2846,7 +2846,7 @@
         <v>0.498</v>
       </c>
       <c r="BA13" t="n">
-        <v>2.38</v>
+        <v>0.878</v>
       </c>
       <c r="BB13" t="n">
         <v>0.274</v>
